--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1418777.103723869</v>
+        <v>-1419220.472902688</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>272900.9826262321</v>
+        <v>272900.9826262298</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>298.2439070487333</v>
       </c>
       <c r="X2" t="n">
-        <v>6.156643948354713</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>111.7243975411423</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>44.5307388247661</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>37.76353774383357</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.3779457667949</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>335.2318879884795</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>2.257718551626576</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>107.1251979584849</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>78.26025374052627</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>76.21326417986977</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>139.004035730891</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>95.042663264716</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.9311097765089</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>133.8464539731087</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>93.69519943695725</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1275,7 +1275,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>84.31882417064588</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>76.21326417986977</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>297.1936540692124</v>
       </c>
       <c r="C11" t="n">
-        <v>285.2049710268941</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>297.9284126413277</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>317.1002287293048</v>
       </c>
       <c r="G11" t="n">
         <v>319.0169197254513</v>
       </c>
       <c r="H11" t="n">
-        <v>236.413843414844</v>
+        <v>32.64210101634907</v>
       </c>
       <c r="I11" t="n">
-        <v>77.54049576322076</v>
+        <v>77.54049576322082</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>19.47750387531036</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>129.1333413673365</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.4257067174173</v>
       </c>
       <c r="V11" t="n">
         <v>240.7000313093915</v>
       </c>
       <c r="W11" t="n">
-        <v>266.0001307873484</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>285.300389020095</v>
+        <v>285.3003890200951</v>
       </c>
       <c r="Y11" t="n">
         <v>296.6969868162938</v>
@@ -1449,7 +1449,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>120.4573622167252</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.63574390140148</v>
+        <v>19.00647008667448</v>
       </c>
       <c r="S12" t="n">
         <v>151.1067464546052</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.81036494390943</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>50.76602400587285</v>
       </c>
       <c r="D13" t="n">
-        <v>58.63172418688831</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>57.57947404266775</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>58.04639837085406</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.62794829531992</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.78277168640641</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>118.5336287275939</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>137.905942337041</v>
       </c>
       <c r="U13" t="n">
-        <v>191.4084814715882</v>
+        <v>191.4084814715883</v>
       </c>
       <c r="V13" t="n">
-        <v>165.218501343535</v>
+        <v>165.2185013435351</v>
       </c>
       <c r="W13" t="n">
         <v>190.3853874141483</v>
       </c>
       <c r="X13" t="n">
-        <v>56.47967081746007</v>
+        <v>136.0304894099515</v>
       </c>
       <c r="Y13" t="n">
         <v>126.9053571660191</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.90686289311452</v>
+        <v>317.1002287293048</v>
       </c>
       <c r="G14" t="n">
         <v>319.0169197254513</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>236.413843414844</v>
       </c>
       <c r="I14" t="n">
-        <v>77.54049576322076</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.06948942449519</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>129.1333413673365</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.4257067174172</v>
+        <v>159.4257067174173</v>
       </c>
       <c r="V14" t="n">
         <v>240.7000313093915</v>
       </c>
       <c r="W14" t="n">
-        <v>266.0001307873484</v>
+        <v>24.73965029516807</v>
       </c>
       <c r="X14" t="n">
-        <v>285.300389020095</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>296.6969868162938</v>
       </c>
     </row>
     <row r="15">
@@ -1740,10 +1740,10 @@
         <v>186.7625027923461</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3092609629287</v>
+        <v>176.6799871482017</v>
       </c>
       <c r="V15" t="n">
-        <v>186.4823925114197</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.38361251188418</v>
+        <v>88.81036494390945</v>
       </c>
       <c r="C16" t="n">
-        <v>75.01035978930992</v>
+        <v>75.01035978930993</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.63172418688832</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>74.31366526496969</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>64.80335745095492</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.5336287275939</v>
+        <v>48.76661086434378</v>
       </c>
       <c r="T16" t="n">
         <v>137.905942337041</v>
       </c>
       <c r="U16" t="n">
-        <v>191.4084814715882</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>165.218501343535</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.311480155302</v>
+        <v>222.3114801553021</v>
       </c>
       <c r="C17" t="n">
-        <v>210.3227971129837</v>
+        <v>210.3227971129839</v>
       </c>
       <c r="D17" t="n">
-        <v>201.3041011575117</v>
+        <v>201.3041011575119</v>
       </c>
       <c r="E17" t="n">
-        <v>223.0462387274172</v>
+        <v>223.0462387274174</v>
       </c>
       <c r="F17" t="n">
-        <v>242.2180548153944</v>
+        <v>242.2180548153946</v>
       </c>
       <c r="G17" t="n">
-        <v>244.1347458115409</v>
+        <v>244.1347458115411</v>
       </c>
       <c r="H17" t="n">
-        <v>161.5316695009336</v>
+        <v>161.5316695009337</v>
       </c>
       <c r="I17" t="n">
-        <v>2.658321849310369</v>
+        <v>2.658321849310539</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.18731551058481</v>
+        <v>17.18731551058498</v>
       </c>
       <c r="T17" t="n">
-        <v>54.2511674534261</v>
+        <v>54.25116745342627</v>
       </c>
       <c r="U17" t="n">
-        <v>84.54353280350685</v>
+        <v>84.54353280350702</v>
       </c>
       <c r="V17" t="n">
-        <v>165.8178573954811</v>
+        <v>165.8178573954813</v>
       </c>
       <c r="W17" t="n">
-        <v>191.117956873438</v>
+        <v>191.1179568734382</v>
       </c>
       <c r="X17" t="n">
-        <v>210.4182151061846</v>
+        <v>210.4182151061848</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.8148129023834</v>
+        <v>221.8148129023836</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.63574390140148</v>
+        <v>19.00647008667448</v>
       </c>
       <c r="S18" t="n">
         <v>151.1067464546052</v>
@@ -1980,7 +1980,7 @@
         <v>216.3092609629287</v>
       </c>
       <c r="V18" t="n">
-        <v>186.4823925114197</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.92819102999906</v>
+        <v>13.92819102999923</v>
       </c>
       <c r="C19" t="n">
-        <v>0.128185875399538</v>
+        <v>0.1281858753997085</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.65145481368349</v>
+        <v>43.65145481368366</v>
       </c>
       <c r="T19" t="n">
-        <v>63.02376842313057</v>
+        <v>63.02376842313074</v>
       </c>
       <c r="U19" t="n">
-        <v>116.5263075576778</v>
+        <v>116.526307557678</v>
       </c>
       <c r="V19" t="n">
-        <v>90.33632742962465</v>
+        <v>90.33632742962482</v>
       </c>
       <c r="W19" t="n">
-        <v>115.5032135002379</v>
+        <v>115.5032135002381</v>
       </c>
       <c r="X19" t="n">
-        <v>61.14831549604102</v>
+        <v>61.14831549604119</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.02318325210871</v>
+        <v>52.02318325210888</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>222.311480155302</v>
+        <v>222.3114801553021</v>
       </c>
       <c r="C20" t="n">
-        <v>210.3227971129837</v>
+        <v>210.3227971129839</v>
       </c>
       <c r="D20" t="n">
-        <v>201.3041011575117</v>
+        <v>201.3041011575119</v>
       </c>
       <c r="E20" t="n">
-        <v>223.0462387274172</v>
+        <v>223.0462387274174</v>
       </c>
       <c r="F20" t="n">
-        <v>242.2180548153944</v>
+        <v>242.2180548153946</v>
       </c>
       <c r="G20" t="n">
-        <v>244.1347458115409</v>
+        <v>244.1347458115411</v>
       </c>
       <c r="H20" t="n">
-        <v>161.5316695009336</v>
+        <v>161.5316695009338</v>
       </c>
       <c r="I20" t="n">
-        <v>2.658321849310369</v>
+        <v>2.658321849310539</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.18731551058481</v>
+        <v>17.18731551058498</v>
       </c>
       <c r="T20" t="n">
-        <v>54.2511674534261</v>
+        <v>54.25116745342627</v>
       </c>
       <c r="U20" t="n">
-        <v>84.54353280350685</v>
+        <v>84.54353280350702</v>
       </c>
       <c r="V20" t="n">
-        <v>165.8178573954811</v>
+        <v>165.8178573954813</v>
       </c>
       <c r="W20" t="n">
-        <v>191.117956873438</v>
+        <v>191.1179568734382</v>
       </c>
       <c r="X20" t="n">
-        <v>210.4182151061846</v>
+        <v>210.4182151061848</v>
       </c>
       <c r="Y20" t="n">
-        <v>221.8148129023834</v>
+        <v>221.8148129023836</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>19.00647008667223</v>
+        <v>19.00647008667493</v>
       </c>
       <c r="S21" t="n">
         <v>151.1067464546052</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.92819102999906</v>
+        <v>13.92819102999923</v>
       </c>
       <c r="C22" t="n">
-        <v>0.128185875399538</v>
+        <v>0.1281858753997085</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.65145481368349</v>
+        <v>43.65145481368366</v>
       </c>
       <c r="T22" t="n">
-        <v>63.02376842313057</v>
+        <v>63.02376842313074</v>
       </c>
       <c r="U22" t="n">
-        <v>116.5263075576778</v>
+        <v>116.526307557678</v>
       </c>
       <c r="V22" t="n">
-        <v>90.33632742962465</v>
+        <v>90.33632742962482</v>
       </c>
       <c r="W22" t="n">
-        <v>115.5032135002379</v>
+        <v>115.5032135002381</v>
       </c>
       <c r="X22" t="n">
-        <v>61.14831549604102</v>
+        <v>61.14831549604119</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.02318325210871</v>
+        <v>52.02318325210888</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>222.311480155302</v>
+        <v>222.3114801553021</v>
       </c>
       <c r="C23" t="n">
-        <v>210.3227971129837</v>
+        <v>210.3227971129839</v>
       </c>
       <c r="D23" t="n">
-        <v>201.3041011575117</v>
+        <v>201.3041011575119</v>
       </c>
       <c r="E23" t="n">
-        <v>223.0462387274172</v>
+        <v>223.0462387274174</v>
       </c>
       <c r="F23" t="n">
-        <v>242.2180548153944</v>
+        <v>242.2180548153946</v>
       </c>
       <c r="G23" t="n">
-        <v>244.1347458115409</v>
+        <v>244.1347458115411</v>
       </c>
       <c r="H23" t="n">
-        <v>161.5316695009336</v>
+        <v>161.5316695009338</v>
       </c>
       <c r="I23" t="n">
-        <v>2.658321849310369</v>
+        <v>2.658321849310552</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.18731551058481</v>
+        <v>17.18731551058498</v>
       </c>
       <c r="T23" t="n">
-        <v>54.2511674534261</v>
+        <v>54.25116745342627</v>
       </c>
       <c r="U23" t="n">
-        <v>84.54353280350685</v>
+        <v>84.54353280350702</v>
       </c>
       <c r="V23" t="n">
-        <v>165.8178573954811</v>
+        <v>165.8178573954813</v>
       </c>
       <c r="W23" t="n">
-        <v>191.117956873438</v>
+        <v>191.1179568734382</v>
       </c>
       <c r="X23" t="n">
-        <v>210.4182151061846</v>
+        <v>210.4182151061848</v>
       </c>
       <c r="Y23" t="n">
-        <v>221.8148129023834</v>
+        <v>221.8148129023836</v>
       </c>
     </row>
     <row r="24">
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>58.63574390140148</v>
+        <v>19.00647008667493</v>
       </c>
       <c r="S24" t="n">
         <v>151.1067464546052</v>
       </c>
       <c r="T24" t="n">
-        <v>147.133228977617</v>
+        <v>186.7625027923461</v>
       </c>
       <c r="U24" t="n">
         <v>216.3092609629287</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.92819102999906</v>
+        <v>13.92819102999923</v>
       </c>
       <c r="C25" t="n">
-        <v>0.128185875399538</v>
+        <v>0.1281858753997085</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.65145481368349</v>
+        <v>43.65145481368366</v>
       </c>
       <c r="T25" t="n">
-        <v>63.02376842313057</v>
+        <v>63.02376842313074</v>
       </c>
       <c r="U25" t="n">
-        <v>116.5263075576778</v>
+        <v>116.526307557678</v>
       </c>
       <c r="V25" t="n">
-        <v>90.33632742962465</v>
+        <v>90.33632742962482</v>
       </c>
       <c r="W25" t="n">
-        <v>115.5032135002379</v>
+        <v>115.5032135002381</v>
       </c>
       <c r="X25" t="n">
-        <v>61.14831549604102</v>
+        <v>61.14831549604119</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.02318325210871</v>
+        <v>52.02318325210888</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>264.1930005258181</v>
       </c>
       <c r="C26" t="n">
-        <v>252.2043174834999</v>
+        <v>252.2043174834998</v>
       </c>
       <c r="D26" t="n">
-        <v>243.1856215280279</v>
+        <v>243.1856215280278</v>
       </c>
       <c r="E26" t="n">
-        <v>264.9277590979334</v>
+        <v>264.9277590979333</v>
       </c>
       <c r="F26" t="n">
-        <v>284.0995751859106</v>
+        <v>284.0995751859105</v>
       </c>
       <c r="G26" t="n">
-        <v>286.0162661820571</v>
+        <v>286.016266182057</v>
       </c>
       <c r="H26" t="n">
-        <v>203.4131898714498</v>
+        <v>203.4131898714497</v>
       </c>
       <c r="I26" t="n">
-        <v>44.53984221982654</v>
+        <v>44.5398422198265</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>59.06883588110098</v>
+        <v>59.06883588110092</v>
       </c>
       <c r="T26" t="n">
-        <v>96.13268782394226</v>
+        <v>96.13268782394221</v>
       </c>
       <c r="U26" t="n">
         <v>126.425053174023</v>
       </c>
       <c r="V26" t="n">
-        <v>207.6993777659973</v>
+        <v>207.6993777659972</v>
       </c>
       <c r="W26" t="n">
-        <v>232.9994772439542</v>
+        <v>232.9994772439541</v>
       </c>
       <c r="X26" t="n">
-        <v>252.2997354767008</v>
+        <v>252.2997354767007</v>
       </c>
       <c r="Y26" t="n">
-        <v>263.6963332728996</v>
+        <v>263.6963332728995</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.80971140051523</v>
+        <v>55.80971140051517</v>
       </c>
       <c r="C28" t="n">
-        <v>42.00970624591571</v>
+        <v>42.00970624591565</v>
       </c>
       <c r="D28" t="n">
-        <v>25.6310706434941</v>
+        <v>25.63107064349404</v>
       </c>
       <c r="E28" t="n">
-        <v>24.57882049927355</v>
+        <v>24.57882049927349</v>
       </c>
       <c r="F28" t="n">
-        <v>25.04574482745986</v>
+        <v>25.0457448274598</v>
       </c>
       <c r="G28" t="n">
-        <v>41.31301172157547</v>
+        <v>41.31301172157541</v>
       </c>
       <c r="H28" t="n">
-        <v>31.8027039075607</v>
+        <v>31.80270390756064</v>
       </c>
       <c r="I28" t="n">
-        <v>16.62729475192566</v>
+        <v>16.6272947519256</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.78211814301221</v>
+        <v>21.78211814301215</v>
       </c>
       <c r="S28" t="n">
-        <v>85.53297518419966</v>
+        <v>85.5329751841996</v>
       </c>
       <c r="T28" t="n">
         <v>104.9052887936467</v>
@@ -2773,13 +2773,13 @@
         <v>132.2178478001408</v>
       </c>
       <c r="W28" t="n">
-        <v>157.3847338707541</v>
+        <v>157.384733870754</v>
       </c>
       <c r="X28" t="n">
-        <v>103.0298358665572</v>
+        <v>103.0298358665571</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.90470362262488</v>
+        <v>93.90470362262482</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>59.06883588110092</v>
+        <v>59.06883588110094</v>
       </c>
       <c r="T29" t="n">
-        <v>96.13268782394221</v>
+        <v>96.13268782394222</v>
       </c>
       <c r="U29" t="n">
         <v>126.425053174023</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.80971140051517</v>
+        <v>55.80971140051518</v>
       </c>
       <c r="C31" t="n">
-        <v>42.00970624591565</v>
+        <v>42.00970624591567</v>
       </c>
       <c r="D31" t="n">
-        <v>25.63107064349404</v>
+        <v>25.63107064349406</v>
       </c>
       <c r="E31" t="n">
-        <v>24.57882049927349</v>
+        <v>24.5788204992735</v>
       </c>
       <c r="F31" t="n">
-        <v>25.0457448274598</v>
+        <v>25.04574482745981</v>
       </c>
       <c r="G31" t="n">
-        <v>41.31301172157541</v>
+        <v>41.31301172157543</v>
       </c>
       <c r="H31" t="n">
-        <v>31.80270390756064</v>
+        <v>31.80270390756066</v>
       </c>
       <c r="I31" t="n">
-        <v>16.6272947519256</v>
+        <v>16.62729475192561</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.78211814301215</v>
+        <v>21.78211814301216</v>
       </c>
       <c r="S31" t="n">
-        <v>85.5329751841996</v>
+        <v>85.53297518419961</v>
       </c>
       <c r="T31" t="n">
         <v>104.9052887936467</v>
@@ -3016,7 +3016,7 @@
         <v>103.0298358665571</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.90470362262482</v>
+        <v>93.90470362262484</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>252.5588719900323</v>
+        <v>252.5588719900324</v>
       </c>
       <c r="C32" t="n">
-        <v>240.570188947714</v>
+        <v>240.5701889477141</v>
       </c>
       <c r="D32" t="n">
-        <v>231.551492992242</v>
+        <v>231.5514929922421</v>
       </c>
       <c r="E32" t="n">
-        <v>253.2936305621475</v>
+        <v>253.2936305621476</v>
       </c>
       <c r="F32" t="n">
-        <v>272.4654466501247</v>
+        <v>272.4654466501248</v>
       </c>
       <c r="G32" t="n">
-        <v>274.3821376462712</v>
+        <v>274.3821376462713</v>
       </c>
       <c r="H32" t="n">
-        <v>191.7790613356639</v>
+        <v>191.779061335664</v>
       </c>
       <c r="I32" t="n">
-        <v>32.90571368404065</v>
+        <v>32.90571368404076</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.43470734531509</v>
+        <v>47.43470734531519</v>
       </c>
       <c r="T32" t="n">
-        <v>84.49855928815637</v>
+        <v>84.49855928815649</v>
       </c>
       <c r="U32" t="n">
-        <v>114.7909246382371</v>
+        <v>114.7909246382372</v>
       </c>
       <c r="V32" t="n">
-        <v>196.0652492302114</v>
+        <v>196.0652492302115</v>
       </c>
       <c r="W32" t="n">
-        <v>221.3653487081683</v>
+        <v>221.3653487081684</v>
       </c>
       <c r="X32" t="n">
-        <v>240.6656069409149</v>
+        <v>240.665606940915</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.0622047371137</v>
+        <v>252.0622047371138</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S33" t="n">
         <v>151.1067464546052</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.17558286472934</v>
+        <v>44.17558286472945</v>
       </c>
       <c r="C34" t="n">
-        <v>30.37557771012982</v>
+        <v>30.37557771012993</v>
       </c>
       <c r="D34" t="n">
-        <v>13.99694210770821</v>
+        <v>13.99694210770832</v>
       </c>
       <c r="E34" t="n">
-        <v>12.94469196348766</v>
+        <v>12.94469196348777</v>
       </c>
       <c r="F34" t="n">
-        <v>13.41161629167397</v>
+        <v>13.41161629167408</v>
       </c>
       <c r="G34" t="n">
-        <v>29.67888318578958</v>
+        <v>29.67888318578969</v>
       </c>
       <c r="H34" t="n">
-        <v>20.16857537177481</v>
+        <v>20.16857537177492</v>
       </c>
       <c r="I34" t="n">
-        <v>4.993166216139766</v>
+        <v>4.99316621613988</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.14798960722632</v>
+        <v>10.14798960722643</v>
       </c>
       <c r="S34" t="n">
-        <v>73.89884664841377</v>
+        <v>73.89884664841388</v>
       </c>
       <c r="T34" t="n">
-        <v>93.27116025786084</v>
+        <v>93.27116025786096</v>
       </c>
       <c r="U34" t="n">
-        <v>146.7736993924081</v>
+        <v>146.7736993924082</v>
       </c>
       <c r="V34" t="n">
-        <v>120.5837192643549</v>
+        <v>120.583719264355</v>
       </c>
       <c r="W34" t="n">
-        <v>145.7506053349682</v>
+        <v>145.7506053349683</v>
       </c>
       <c r="X34" t="n">
-        <v>91.3957073307713</v>
+        <v>91.39570733077142</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.27057508683899</v>
+        <v>82.2705750868391</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I35" t="n">
-        <v>5.300273436959003</v>
+        <v>5.300273436959016</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>58.63574390140148</v>
+        <v>58.63574390140193</v>
       </c>
       <c r="S36" t="n">
         <v>151.1067464546052</v>
@@ -3503,13 +3503,13 @@
         <v>224.9534317429506</v>
       </c>
       <c r="C38" t="n">
-        <v>212.9647487006324</v>
+        <v>212.9647487006323</v>
       </c>
       <c r="D38" t="n">
         <v>203.9460527451603</v>
       </c>
       <c r="E38" t="n">
-        <v>225.6881903150659</v>
+        <v>225.6881903150658</v>
       </c>
       <c r="F38" t="n">
         <v>244.860006403043</v>
@@ -3521,7 +3521,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I38" t="n">
-        <v>5.300273436959003</v>
+        <v>5.300273436958988</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.82926709823343</v>
+        <v>19.82926709823342</v>
       </c>
       <c r="T38" t="n">
-        <v>56.89311904107473</v>
+        <v>56.8931190410747</v>
       </c>
       <c r="U38" t="n">
-        <v>87.18548439115548</v>
+        <v>87.18548439115546</v>
       </c>
       <c r="V38" t="n">
         <v>168.4598089831297</v>
@@ -3566,7 +3566,7 @@
         <v>193.7599084610866</v>
       </c>
       <c r="X38" t="n">
-        <v>213.0601666938333</v>
+        <v>213.0601666938332</v>
       </c>
       <c r="Y38" t="n">
         <v>224.456764490032</v>
@@ -3600,7 +3600,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I39" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.57014261764769</v>
+        <v>16.57014261764766</v>
       </c>
       <c r="C40" t="n">
-        <v>2.770137463048172</v>
+        <v>2.770137463048144</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.073442938707931</v>
+        <v>2.073442938707903</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>46.29340640133212</v>
+        <v>46.29340640133209</v>
       </c>
       <c r="T40" t="n">
-        <v>65.6657200107792</v>
+        <v>65.66572001077917</v>
       </c>
       <c r="U40" t="n">
-        <v>119.1682591453265</v>
+        <v>119.1682591453264</v>
       </c>
       <c r="V40" t="n">
-        <v>92.97827901727328</v>
+        <v>92.97827901727325</v>
       </c>
       <c r="W40" t="n">
         <v>118.1451650878865</v>
       </c>
       <c r="X40" t="n">
-        <v>63.79026708368966</v>
+        <v>63.79026708368963</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.66513483975734</v>
+        <v>54.66513483975731</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>224.9534317429506</v>
       </c>
       <c r="C41" t="n">
-        <v>212.9647487006323</v>
+        <v>212.9647487006324</v>
       </c>
       <c r="D41" t="n">
-        <v>203.9460527451603</v>
+        <v>203.9460527451604</v>
       </c>
       <c r="E41" t="n">
-        <v>225.6881903150658</v>
+        <v>225.6881903150659</v>
       </c>
       <c r="F41" t="n">
-        <v>244.860006403043</v>
+        <v>244.8600064030431</v>
       </c>
       <c r="G41" t="n">
         <v>246.7766973991895</v>
       </c>
       <c r="H41" t="n">
-        <v>164.1736210885822</v>
+        <v>164.1736210885823</v>
       </c>
       <c r="I41" t="n">
-        <v>5.300273436958975</v>
+        <v>5.300273436959031</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.82926709823342</v>
+        <v>19.82926709823347</v>
       </c>
       <c r="T41" t="n">
-        <v>56.8931190410747</v>
+        <v>56.89311904107476</v>
       </c>
       <c r="U41" t="n">
-        <v>87.18548439115546</v>
+        <v>87.18548439115551</v>
       </c>
       <c r="V41" t="n">
-        <v>168.4598089831297</v>
+        <v>168.4598089831298</v>
       </c>
       <c r="W41" t="n">
-        <v>193.7599084610866</v>
+        <v>193.7599084610867</v>
       </c>
       <c r="X41" t="n">
-        <v>213.0601666938332</v>
+        <v>213.0601666938333</v>
       </c>
       <c r="Y41" t="n">
         <v>224.456764490032</v>
@@ -3834,7 +3834,7 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H42" t="n">
-        <v>98.85281891432001</v>
+        <v>98.85281891431895</v>
       </c>
       <c r="I42" t="n">
         <v>67.39308974070319</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>58.63574390140148</v>
+        <v>58.63574390140238</v>
       </c>
       <c r="S42" t="n">
         <v>151.1067464546052</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.57014261764766</v>
+        <v>16.57014261764772</v>
       </c>
       <c r="C43" t="n">
-        <v>2.770137463048144</v>
+        <v>2.770137463048201</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.073442938707903</v>
+        <v>2.07344293870796</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.29340640133209</v>
+        <v>46.29340640133215</v>
       </c>
       <c r="T43" t="n">
-        <v>65.66572001077917</v>
+        <v>65.66572001077922</v>
       </c>
       <c r="U43" t="n">
-        <v>119.1682591453264</v>
+        <v>119.1682591453265</v>
       </c>
       <c r="V43" t="n">
-        <v>92.97827901727325</v>
+        <v>92.97827901727331</v>
       </c>
       <c r="W43" t="n">
-        <v>118.1451650878865</v>
+        <v>118.1451650878866</v>
       </c>
       <c r="X43" t="n">
-        <v>63.79026708368963</v>
+        <v>63.79026708368968</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.66513483975731</v>
+        <v>54.66513483975737</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>224.9534317429506</v>
       </c>
       <c r="C44" t="n">
-        <v>212.9647487006324</v>
+        <v>212.9647487006323</v>
       </c>
       <c r="D44" t="n">
-        <v>203.9460527451604</v>
+        <v>203.9460527451603</v>
       </c>
       <c r="E44" t="n">
-        <v>225.6881903150659</v>
+        <v>225.6881903150658</v>
       </c>
       <c r="F44" t="n">
-        <v>244.8600064030431</v>
+        <v>244.860006403043</v>
       </c>
       <c r="G44" t="n">
         <v>246.7766973991895</v>
       </c>
       <c r="H44" t="n">
-        <v>164.1736210885823</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I44" t="n">
-        <v>5.300273436959031</v>
+        <v>5.300273436958975</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.82926709823347</v>
+        <v>19.82926709823342</v>
       </c>
       <c r="T44" t="n">
-        <v>56.89311904107476</v>
+        <v>56.8931190410747</v>
       </c>
       <c r="U44" t="n">
-        <v>87.18548439115551</v>
+        <v>87.18548439115546</v>
       </c>
       <c r="V44" t="n">
-        <v>168.4598089831298</v>
+        <v>168.4598089831297</v>
       </c>
       <c r="W44" t="n">
-        <v>193.7599084610867</v>
+        <v>193.7599084610866</v>
       </c>
       <c r="X44" t="n">
-        <v>213.0601666938333</v>
+        <v>213.0601666938332</v>
       </c>
       <c r="Y44" t="n">
         <v>224.456764490032</v>
@@ -4107,7 +4107,7 @@
         <v>151.1067464546052</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7625027923461</v>
+        <v>186.7625027923471</v>
       </c>
       <c r="U45" t="n">
         <v>216.3092609629287</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.57014261764772</v>
+        <v>16.57014261764766</v>
       </c>
       <c r="C46" t="n">
-        <v>2.770137463048201</v>
+        <v>2.770137463048144</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.07344293870796</v>
+        <v>2.073442938707903</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>46.29340640133215</v>
+        <v>46.29340640133209</v>
       </c>
       <c r="T46" t="n">
-        <v>65.66572001077922</v>
+        <v>65.66572001077917</v>
       </c>
       <c r="U46" t="n">
-        <v>119.1682591453265</v>
+        <v>119.1682591453264</v>
       </c>
       <c r="V46" t="n">
-        <v>92.97827901727331</v>
+        <v>92.97827901727325</v>
       </c>
       <c r="W46" t="n">
-        <v>118.1451650878866</v>
+        <v>118.1451650878865</v>
       </c>
       <c r="X46" t="n">
-        <v>63.79026708368968</v>
+        <v>63.79026708368963</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.66513483975737</v>
+        <v>54.66513483975731</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1333.849340774054</v>
+        <v>948.1734147745767</v>
       </c>
       <c r="C2" t="n">
-        <v>1333.849340774054</v>
+        <v>566.239656107384</v>
       </c>
       <c r="D2" t="n">
-        <v>961.0253760012772</v>
+        <v>566.239656107384</v>
       </c>
       <c r="E2" t="n">
         <v>566.239656107384</v>
@@ -4325,10 +4325,10 @@
         <v>211.2440125498597</v>
       </c>
       <c r="I2" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="J2" t="n">
-        <v>110.4253580314613</v>
+        <v>110.4253580314614</v>
       </c>
       <c r="K2" t="n">
         <v>350.5657300762441</v>
@@ -4337,43 +4337,43 @@
         <v>698.4511031611903</v>
       </c>
       <c r="M2" t="n">
-        <v>1009.847848316181</v>
+        <v>1091.690269414278</v>
       </c>
       <c r="N2" t="n">
-        <v>1388.179207003897</v>
+        <v>1470.021628101994</v>
       </c>
       <c r="O2" t="n">
-        <v>1693.183791476731</v>
+        <v>1775.026212574828</v>
       </c>
       <c r="P2" t="n">
-        <v>1921.340687932784</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1921.340687932784</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="R2" t="n">
-        <v>1921.340687932784</v>
+        <v>1830.702401428639</v>
       </c>
       <c r="S2" t="n">
-        <v>1734.111712563138</v>
+        <v>1643.473426058993</v>
       </c>
       <c r="T2" t="n">
-        <v>1734.111712563138</v>
+        <v>1643.473426058993</v>
       </c>
       <c r="U2" t="n">
-        <v>1734.111712563138</v>
+        <v>1643.473426058993</v>
       </c>
       <c r="V2" t="n">
-        <v>1734.111712563138</v>
+        <v>1643.473426058993</v>
       </c>
       <c r="W2" t="n">
-        <v>1734.111712563138</v>
+        <v>1342.216954292596</v>
       </c>
       <c r="X2" t="n">
-        <v>1727.892880292073</v>
+        <v>1342.216954292596</v>
       </c>
       <c r="Y2" t="n">
-        <v>1727.892880292073</v>
+        <v>1342.216954292596</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>689.1876834682266</v>
+        <v>517.2594070385646</v>
       </c>
       <c r="C3" t="n">
-        <v>527.4840107091813</v>
+        <v>517.2594070385646</v>
       </c>
       <c r="D3" t="n">
-        <v>527.4840107091813</v>
+        <v>517.2594070385646</v>
       </c>
       <c r="E3" t="n">
-        <v>380.4560007660526</v>
+        <v>370.2313970954358</v>
       </c>
       <c r="F3" t="n">
-        <v>335.4754564986121</v>
+        <v>235.5375990453101</v>
       </c>
       <c r="G3" t="n">
-        <v>206.7469565218967</v>
+        <v>106.8090990685947</v>
       </c>
       <c r="H3" t="n">
         <v>106.8090990685947</v>
       </c>
       <c r="I3" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="J3" t="n">
-        <v>98.68096029176183</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="K3" t="n">
-        <v>328.1715128519505</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="L3" t="n">
-        <v>693.9933580220661</v>
+        <v>118.2095475606145</v>
       </c>
       <c r="M3" t="n">
-        <v>1169.52517828543</v>
+        <v>593.741367823979</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.056998548794</v>
+        <v>1069.273188087343</v>
       </c>
       <c r="O3" t="n">
-        <v>1645.056998548794</v>
+        <v>1461.473138871494</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.56905814719</v>
+        <v>1763.569058147192</v>
       </c>
       <c r="Q3" t="n">
-        <v>1921.340687932784</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="R3" t="n">
-        <v>1861.55641902773</v>
+        <v>1861.556419027732</v>
       </c>
       <c r="S3" t="n">
-        <v>1708.75693204047</v>
+        <v>1708.756932040472</v>
       </c>
       <c r="T3" t="n">
-        <v>1708.75693204047</v>
+        <v>1708.756932040472</v>
       </c>
       <c r="U3" t="n">
-        <v>1708.75693204047</v>
+        <v>1490.262139638782</v>
       </c>
       <c r="V3" t="n">
-        <v>1480.361309488804</v>
+        <v>1261.866517087116</v>
       </c>
       <c r="W3" t="n">
-        <v>1239.045440722114</v>
+        <v>1020.550648320426</v>
       </c>
       <c r="X3" t="n">
-        <v>1041.128452599909</v>
+        <v>822.6336601982205</v>
       </c>
       <c r="Y3" t="n">
-        <v>848.6071262494876</v>
+        <v>630.1123338477993</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.5718013786896</v>
+        <v>190.4358279973369</v>
       </c>
       <c r="C4" t="n">
-        <v>76.5718013786896</v>
+        <v>190.4358279973369</v>
       </c>
       <c r="D4" t="n">
-        <v>76.5718013786896</v>
+        <v>190.4358279973369</v>
       </c>
       <c r="E4" t="n">
-        <v>76.5718013786896</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="F4" t="n">
-        <v>76.5718013786896</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="G4" t="n">
-        <v>76.5718013786896</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="H4" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="I4" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="J4" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="K4" t="n">
-        <v>72.03100150329909</v>
+        <v>72.03100150329914</v>
       </c>
       <c r="L4" t="n">
-        <v>172.6380809035586</v>
+        <v>172.6380809035587</v>
       </c>
       <c r="M4" t="n">
-        <v>290.6315870311603</v>
+        <v>290.6315870311604</v>
       </c>
       <c r="N4" t="n">
-        <v>409.0539287807607</v>
+        <v>409.0539287807608</v>
       </c>
       <c r="O4" t="n">
         <v>507.5175752764504</v>
       </c>
       <c r="P4" t="n">
-        <v>570.4860590045881</v>
+        <v>570.4860590045882</v>
       </c>
       <c r="Q4" t="n">
-        <v>570.4860590045881</v>
+        <v>531.9487176582772</v>
       </c>
       <c r="R4" t="n">
-        <v>570.4860590045881</v>
+        <v>531.9487176582772</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4860590045881</v>
+        <v>531.9487176582772</v>
       </c>
       <c r="T4" t="n">
-        <v>337.307105820267</v>
+        <v>531.9487176582772</v>
       </c>
       <c r="U4" t="n">
-        <v>337.307105820267</v>
+        <v>531.9487176582772</v>
       </c>
       <c r="V4" t="n">
-        <v>76.5718013786896</v>
+        <v>531.9487176582772</v>
       </c>
       <c r="W4" t="n">
-        <v>76.5718013786896</v>
+        <v>373.9911966817167</v>
       </c>
       <c r="X4" t="n">
-        <v>76.5718013786896</v>
+        <v>373.9911966817167</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.5718013786896</v>
+        <v>373.9911966817167</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>797.462861356584</v>
+        <v>1558.805757790387</v>
       </c>
       <c r="C5" t="n">
-        <v>797.462861356584</v>
+        <v>1558.805757790387</v>
       </c>
       <c r="D5" t="n">
-        <v>797.462861356584</v>
+        <v>1185.98179301761</v>
       </c>
       <c r="E5" t="n">
-        <v>797.462861356584</v>
+        <v>791.1960731237173</v>
       </c>
       <c r="F5" t="n">
-        <v>787.3520747071584</v>
+        <v>377.0448824338876</v>
       </c>
       <c r="G5" t="n">
-        <v>371.2480881613464</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="H5" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="I5" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="J5" t="n">
-        <v>110.4253580314613</v>
+        <v>110.4253580314614</v>
       </c>
       <c r="K5" t="n">
-        <v>174.29105529161</v>
+        <v>350.5657300762441</v>
       </c>
       <c r="L5" t="n">
-        <v>522.1764283765563</v>
+        <v>698.4511031611903</v>
       </c>
       <c r="M5" t="n">
-        <v>915.4155946296441</v>
+        <v>1091.690269414278</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.74695331736</v>
+        <v>1470.021628101994</v>
       </c>
       <c r="O5" t="n">
-        <v>1598.751537790194</v>
+        <v>1598.751537790196</v>
       </c>
       <c r="P5" t="n">
-        <v>1826.908434246247</v>
+        <v>1826.908434246249</v>
       </c>
       <c r="Q5" t="n">
-        <v>1921.340687932784</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="R5" t="n">
-        <v>1830.702401428637</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="S5" t="n">
-        <v>1830.702401428637</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="T5" t="n">
-        <v>1830.702401428637</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="U5" t="n">
-        <v>1575.817065142631</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="V5" t="n">
-        <v>1575.817065142631</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="W5" t="n">
-        <v>1573.53654135311</v>
+        <v>1558.805757790387</v>
       </c>
       <c r="X5" t="n">
-        <v>1191.506400874603</v>
+        <v>1558.805757790387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1191.506400874603</v>
+        <v>1558.805757790387</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>415.5407817707688</v>
+        <v>728.8982021858797</v>
       </c>
       <c r="C6" t="n">
-        <v>253.8371090117235</v>
+        <v>567.1945294268344</v>
       </c>
       <c r="D6" t="n">
-        <v>253.8371090117235</v>
+        <v>428.3558924170464</v>
       </c>
       <c r="E6" t="n">
-        <v>106.8090990685947</v>
+        <v>281.3278824739177</v>
       </c>
       <c r="F6" t="n">
-        <v>106.8090990685947</v>
+        <v>146.634084423792</v>
       </c>
       <c r="G6" t="n">
-        <v>106.8090990685947</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="H6" t="n">
-        <v>106.8090990685947</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="I6" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="J6" t="n">
-        <v>98.68096029176183</v>
+        <v>98.68096029176186</v>
       </c>
       <c r="K6" t="n">
         <v>328.1715128519505</v>
       </c>
       <c r="L6" t="n">
-        <v>328.1715128519505</v>
+        <v>693.9933580220661</v>
       </c>
       <c r="M6" t="n">
-        <v>803.7033331153145</v>
+        <v>1169.525178285431</v>
       </c>
       <c r="N6" t="n">
-        <v>1279.235153378679</v>
+        <v>1529.140737148635</v>
       </c>
       <c r="O6" t="n">
-        <v>1671.435104162829</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.56905814719</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="Q6" t="n">
-        <v>1921.340687932784</v>
+        <v>1921.340687932786</v>
       </c>
       <c r="R6" t="n">
-        <v>1921.340687932784</v>
+        <v>1861.556419027732</v>
       </c>
       <c r="S6" t="n">
-        <v>1842.289926578717</v>
+        <v>1708.756932040472</v>
       </c>
       <c r="T6" t="n">
-        <v>1653.604822744702</v>
+        <v>1520.071828206457</v>
       </c>
       <c r="U6" t="n">
-        <v>1435.110030343012</v>
+        <v>1520.071828206457</v>
       </c>
       <c r="V6" t="n">
-        <v>1206.714407791346</v>
+        <v>1520.071828206457</v>
       </c>
       <c r="W6" t="n">
-        <v>965.3985390246563</v>
+        <v>1278.755959439767</v>
       </c>
       <c r="X6" t="n">
-        <v>767.4815509024509</v>
+        <v>1080.838971317562</v>
       </c>
       <c r="Y6" t="n">
-        <v>574.9602245520297</v>
+        <v>888.3176449671406</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>207.3465623908057</v>
+        <v>208.0427832969754</v>
       </c>
       <c r="C7" t="n">
-        <v>207.3465623908057</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="D7" t="n">
-        <v>207.3465623908057</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="E7" t="n">
-        <v>207.3465623908057</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="F7" t="n">
-        <v>207.3465623908057</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="G7" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="H7" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="I7" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="J7" t="n">
-        <v>38.42681375865568</v>
+        <v>38.42681375865572</v>
       </c>
       <c r="K7" t="n">
-        <v>72.03100150329909</v>
+        <v>72.03100150329914</v>
       </c>
       <c r="L7" t="n">
-        <v>172.6380809035586</v>
+        <v>172.6380809035587</v>
       </c>
       <c r="M7" t="n">
-        <v>290.6315870311603</v>
+        <v>290.6315870311604</v>
       </c>
       <c r="N7" t="n">
-        <v>409.0539287807607</v>
+        <v>409.0539287807608</v>
       </c>
       <c r="O7" t="n">
         <v>507.5175752764504</v>
       </c>
       <c r="P7" t="n">
-        <v>570.4860590045881</v>
+        <v>570.4860590045882</v>
       </c>
       <c r="Q7" t="n">
-        <v>570.4860590045881</v>
+        <v>570.4860590045882</v>
       </c>
       <c r="R7" t="n">
-        <v>570.4860590045881</v>
+        <v>570.4860590045882</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4860590045881</v>
+        <v>570.4860590045882</v>
       </c>
       <c r="T7" t="n">
-        <v>493.5029638734065</v>
+        <v>570.4860590045882</v>
       </c>
       <c r="U7" t="n">
-        <v>493.5029638734065</v>
+        <v>570.4860590045882</v>
       </c>
       <c r="V7" t="n">
-        <v>493.5029638734065</v>
+        <v>570.4860590045882</v>
       </c>
       <c r="W7" t="n">
-        <v>207.3465623908057</v>
+        <v>430.0779421046984</v>
       </c>
       <c r="X7" t="n">
-        <v>207.3465623908057</v>
+        <v>430.0779421046984</v>
       </c>
       <c r="Y7" t="n">
-        <v>207.3465623908057</v>
+        <v>208.0427832969754</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1013.880192860417</v>
+        <v>951.7708571171202</v>
       </c>
       <c r="C8" t="n">
-        <v>1013.880192860417</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="D8" t="n">
-        <v>641.0562280876408</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="E8" t="n">
-        <v>641.0562280876408</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>559.7263118005019</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
@@ -4835,19 +4835,19 @@
         <v>1823.345543186168</v>
       </c>
       <c r="U8" t="n">
-        <v>1568.460206900163</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V8" t="n">
-        <v>1568.460206900163</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W8" t="n">
-        <v>1568.460206900163</v>
+        <v>1727.342853019789</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.460206900163</v>
+        <v>1345.312712541282</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.923732378436</v>
+        <v>951.7708571171202</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>719.5811613869585</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="C9" t="n">
-        <v>719.5811613869585</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="D9" t="n">
-        <v>580.7425243771705</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="E9" t="n">
-        <v>433.7145144340417</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F9" t="n">
         <v>339.0728988411556</v>
@@ -4884,49 +4884,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1071.521930518641</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>1071.521930518641</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>879.0006041682194</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.9440047333492</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="C10" t="n">
-        <v>210.9440047333492</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="D10" t="n">
-        <v>210.9440047333492</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="E10" t="n">
-        <v>210.9440047333492</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9440047333492</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="H10" t="n">
         <v>42.02425610119923</v>
@@ -4987,25 +4987,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="U10" t="n">
-        <v>497.1004062159501</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="V10" t="n">
-        <v>497.1004062159501</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="W10" t="n">
-        <v>210.9440047333492</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="X10" t="n">
-        <v>210.9440047333492</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.9440047333492</v>
+        <v>127.1947855664981</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>978.0109984284786</v>
+        <v>1105.336178171149</v>
       </c>
       <c r="C11" t="n">
-        <v>689.9251691083834</v>
+        <v>1105.336178171149</v>
       </c>
       <c r="D11" t="n">
-        <v>689.9251691083834</v>
+        <v>1105.336178171149</v>
       </c>
       <c r="E11" t="n">
-        <v>689.9251691083834</v>
+        <v>804.3983876243535</v>
       </c>
       <c r="F11" t="n">
-        <v>689.9251691083834</v>
+        <v>484.0951262816213</v>
       </c>
       <c r="G11" t="n">
-        <v>367.6858562543923</v>
+        <v>161.8558134276301</v>
       </c>
       <c r="H11" t="n">
-        <v>128.8839942191964</v>
+        <v>128.8839942191965</v>
       </c>
       <c r="I11" t="n">
-        <v>50.56026112503397</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="J11" t="n">
-        <v>123.9516797347703</v>
+        <v>215.9320352878606</v>
       </c>
       <c r="K11" t="n">
-        <v>393.5683641668264</v>
+        <v>550.140320451369</v>
       </c>
       <c r="L11" t="n">
-        <v>744.0435370064104</v>
+        <v>928.0042481125945</v>
       </c>
       <c r="M11" t="n">
-        <v>1232.144710040614</v>
+        <v>1416.105421146798</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.404348085897</v>
+        <v>1889.345414745172</v>
       </c>
       <c r="O11" t="n">
-        <v>2013.154379272946</v>
+        <v>2197.11509037913</v>
       </c>
       <c r="P11" t="n">
-        <v>2335.651572615465</v>
+        <v>2427.631928168559</v>
       </c>
       <c r="Q11" t="n">
-        <v>2523.836399514289</v>
+        <v>2523.836399514292</v>
       </c>
       <c r="R11" t="n">
-        <v>2528.013056251699</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="S11" t="n">
-        <v>2508.338809913002</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="T11" t="n">
-        <v>2377.901091360136</v>
+        <v>2397.575337698836</v>
       </c>
       <c r="U11" t="n">
-        <v>2377.901091360136</v>
+        <v>2236.539270307506</v>
       </c>
       <c r="V11" t="n">
-        <v>2134.769746603175</v>
+        <v>1993.407925550544</v>
       </c>
       <c r="W11" t="n">
-        <v>1866.082745807874</v>
+        <v>1993.407925550544</v>
       </c>
       <c r="X11" t="n">
-        <v>1577.900534676465</v>
+        <v>1705.225714419135</v>
       </c>
       <c r="Y11" t="n">
-        <v>1278.2066085994</v>
+        <v>1405.531788342071</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>889.4395105973529</v>
+        <v>929.4690801071807</v>
       </c>
       <c r="C12" t="n">
         <v>767.7654073481355</v>
@@ -5109,16 +5109,16 @@
         <v>347.204962345093</v>
       </c>
       <c r="G12" t="n">
-        <v>218.4854213826321</v>
+        <v>218.4854213826322</v>
       </c>
       <c r="H12" t="n">
         <v>118.6340891459463</v>
       </c>
       <c r="I12" t="n">
-        <v>50.56026112503397</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="J12" t="n">
-        <v>111.6439940710715</v>
+        <v>111.6439940710716</v>
       </c>
       <c r="K12" t="n">
         <v>342.5524419455398</v>
@@ -5130,40 +5130,40 @@
         <v>1197.539012542098</v>
       </c>
       <c r="N12" t="n">
-        <v>1711.088380159135</v>
+        <v>1671.058810649309</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.37748994901</v>
+        <v>2065.347920439184</v>
       </c>
       <c r="P12" t="n">
-        <v>2369.120574000483</v>
+        <v>2369.120574000486</v>
       </c>
       <c r="Q12" t="n">
-        <v>2528.013056251699</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="R12" t="n">
-        <v>2468.785032108869</v>
+        <v>2508.814601618697</v>
       </c>
       <c r="S12" t="n">
-        <v>2316.151954881995</v>
+        <v>2356.181524391823</v>
       </c>
       <c r="T12" t="n">
-        <v>2127.502962162454</v>
+        <v>2167.532531672281</v>
       </c>
       <c r="U12" t="n">
-        <v>1909.008759169596</v>
+        <v>1949.038328679424</v>
       </c>
       <c r="V12" t="n">
-        <v>1680.61313661793</v>
+        <v>1720.642706127758</v>
       </c>
       <c r="W12" t="n">
-        <v>1439.29726785124</v>
+        <v>1479.326837361068</v>
       </c>
       <c r="X12" t="n">
-        <v>1241.380279729035</v>
+        <v>1281.409849238863</v>
       </c>
       <c r="Y12" t="n">
-        <v>1048.858953378614</v>
+        <v>1088.888522888442</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>226.5780354688826</v>
+        <v>151.9683139545218</v>
       </c>
       <c r="C13" t="n">
-        <v>226.5780354688826</v>
+        <v>100.6895018273774</v>
       </c>
       <c r="D13" t="n">
-        <v>167.3540716437429</v>
+        <v>100.6895018273774</v>
       </c>
       <c r="E13" t="n">
-        <v>109.1929867521593</v>
+        <v>100.6895018273774</v>
       </c>
       <c r="F13" t="n">
-        <v>50.56026112503397</v>
+        <v>100.6895018273774</v>
       </c>
       <c r="G13" t="n">
-        <v>50.56026112503397</v>
+        <v>100.6895018273774</v>
       </c>
       <c r="H13" t="n">
-        <v>50.56026112503397</v>
+        <v>100.6895018273774</v>
       </c>
       <c r="I13" t="n">
-        <v>50.56026112503397</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="J13" t="n">
-        <v>84.19897299562007</v>
+        <v>84.19897299562005</v>
       </c>
       <c r="K13" t="n">
         <v>210.6387851416042</v>
       </c>
       <c r="L13" t="n">
-        <v>404.3206697619562</v>
+        <v>404.3206697619561</v>
       </c>
       <c r="M13" t="n">
-        <v>615.4484751633355</v>
+        <v>615.4484751633354</v>
       </c>
       <c r="N13" t="n">
-        <v>826.9776779842265</v>
+        <v>826.9776779842263</v>
       </c>
       <c r="O13" t="n">
         <v>1018.462190209266</v>
       </c>
       <c r="P13" t="n">
-        <v>1174.301365699972</v>
+        <v>1174.301365699971</v>
       </c>
       <c r="Q13" t="n">
-        <v>1229.127695641267</v>
+        <v>1229.127695641266</v>
       </c>
       <c r="R13" t="n">
-        <v>1173.791562624695</v>
+        <v>1229.127695641266</v>
       </c>
       <c r="S13" t="n">
-        <v>1054.060624516014</v>
+        <v>1109.396757532586</v>
       </c>
       <c r="T13" t="n">
-        <v>1054.060624516014</v>
+        <v>970.097825879009</v>
       </c>
       <c r="U13" t="n">
-        <v>860.7187240396624</v>
+        <v>776.7559254026572</v>
       </c>
       <c r="V13" t="n">
-        <v>693.8313489451826</v>
+        <v>609.8685503081773</v>
       </c>
       <c r="W13" t="n">
-        <v>501.5228768096794</v>
+        <v>417.5600781726739</v>
       </c>
       <c r="X13" t="n">
-        <v>444.4727042667902</v>
+        <v>280.1555434151472</v>
       </c>
       <c r="Y13" t="n">
-        <v>316.2854748061649</v>
+        <v>151.9683139545218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1043.343619185744</v>
+        <v>1498.966562102727</v>
       </c>
       <c r="C14" t="n">
-        <v>755.2577898656484</v>
+        <v>1210.880732782632</v>
       </c>
       <c r="D14" t="n">
-        <v>476.2817544399699</v>
+        <v>931.9046973569532</v>
       </c>
       <c r="E14" t="n">
-        <v>476.2817544399699</v>
+        <v>931.9046973569532</v>
       </c>
       <c r="F14" t="n">
-        <v>451.1233070731876</v>
+        <v>611.6014360142211</v>
       </c>
       <c r="G14" t="n">
-        <v>128.8839942191964</v>
+        <v>289.3621231602299</v>
       </c>
       <c r="H14" t="n">
-        <v>128.8839942191964</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="I14" t="n">
-        <v>50.56026112503397</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="J14" t="n">
-        <v>123.9516797347703</v>
+        <v>215.9320352878607</v>
       </c>
       <c r="K14" t="n">
-        <v>458.1599648982788</v>
+        <v>550.140320451369</v>
       </c>
       <c r="L14" t="n">
-        <v>808.6351377378628</v>
+        <v>992.5958488440433</v>
       </c>
       <c r="M14" t="n">
-        <v>1296.736310772066</v>
+        <v>1388.716666325156</v>
       </c>
       <c r="N14" t="n">
-        <v>1705.384703638988</v>
+        <v>1797.365059192081</v>
       </c>
       <c r="O14" t="n">
-        <v>2105.134734826037</v>
+        <v>2105.13473482604</v>
       </c>
       <c r="P14" t="n">
-        <v>2427.631928168556</v>
+        <v>2427.631928168559</v>
       </c>
       <c r="Q14" t="n">
-        <v>2523.836399514289</v>
+        <v>2523.836399514292</v>
       </c>
       <c r="R14" t="n">
-        <v>2528.013056251699</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.013571984532</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="T14" t="n">
-        <v>2304.575853431667</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="U14" t="n">
-        <v>2143.539786040337</v>
+        <v>2366.976988860371</v>
       </c>
       <c r="V14" t="n">
-        <v>1900.408441283376</v>
+        <v>2123.84564410341</v>
       </c>
       <c r="W14" t="n">
-        <v>1631.721440488074</v>
+        <v>2098.856098350713</v>
       </c>
       <c r="X14" t="n">
-        <v>1343.539229356665</v>
+        <v>2098.856098350713</v>
       </c>
       <c r="Y14" t="n">
-        <v>1343.539229356665</v>
+        <v>1799.162172273649</v>
       </c>
     </row>
     <row r="15">
@@ -5346,49 +5346,49 @@
         <v>347.204962345093</v>
       </c>
       <c r="G15" t="n">
-        <v>218.4854213826321</v>
+        <v>218.4854213826322</v>
       </c>
       <c r="H15" t="n">
         <v>118.6340891459463</v>
       </c>
       <c r="I15" t="n">
-        <v>50.56026112503397</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="J15" t="n">
-        <v>111.6439940710715</v>
+        <v>71.61442456124561</v>
       </c>
       <c r="K15" t="n">
-        <v>342.5524419455398</v>
+        <v>302.5228724357139</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2808223448542</v>
+        <v>670.2512528350283</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.539012542098</v>
+        <v>1157.509443032272</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.058810649307</v>
+        <v>1671.058810649309</v>
       </c>
       <c r="O15" t="n">
-        <v>2065.347920439181</v>
+        <v>2065.347920439184</v>
       </c>
       <c r="P15" t="n">
-        <v>2369.120574000483</v>
+        <v>2369.120574000486</v>
       </c>
       <c r="Q15" t="n">
-        <v>2528.013056251699</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="R15" t="n">
-        <v>2468.785032108869</v>
+        <v>2468.785032108872</v>
       </c>
       <c r="S15" t="n">
-        <v>2316.151954881995</v>
+        <v>2316.151954881998</v>
       </c>
       <c r="T15" t="n">
-        <v>2127.502962162454</v>
+        <v>2127.502962162456</v>
       </c>
       <c r="U15" t="n">
-        <v>1909.008759169596</v>
+        <v>1949.038328679424</v>
       </c>
       <c r="V15" t="n">
         <v>1720.642706127758</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>126.3283013162561</v>
+        <v>326.0745103089962</v>
       </c>
       <c r="C16" t="n">
-        <v>50.56026112503397</v>
+        <v>250.3064701177742</v>
       </c>
       <c r="D16" t="n">
-        <v>50.56026112503397</v>
+        <v>191.0825062926345</v>
       </c>
       <c r="E16" t="n">
-        <v>50.56026112503397</v>
+        <v>191.0825062926345</v>
       </c>
       <c r="F16" t="n">
-        <v>50.56026112503397</v>
+        <v>191.0825062926345</v>
       </c>
       <c r="G16" t="n">
-        <v>50.56026112503397</v>
+        <v>116.0181979441803</v>
       </c>
       <c r="H16" t="n">
-        <v>50.56026112503397</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="I16" t="n">
-        <v>50.56026112503397</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="J16" t="n">
-        <v>84.19897299562012</v>
+        <v>84.19897299562001</v>
       </c>
       <c r="K16" t="n">
-        <v>210.6387851416043</v>
+        <v>210.6387851416042</v>
       </c>
       <c r="L16" t="n">
-        <v>404.3206697619563</v>
+        <v>404.3206697619561</v>
       </c>
       <c r="M16" t="n">
-        <v>615.4484751633356</v>
+        <v>615.4484751633354</v>
       </c>
       <c r="N16" t="n">
-        <v>826.9776779842266</v>
+        <v>826.9776779842265</v>
       </c>
       <c r="O16" t="n">
         <v>1018.462190209266</v>
@@ -5461,25 +5461,25 @@
         <v>1229.127695641267</v>
       </c>
       <c r="S16" t="n">
-        <v>1109.396757532586</v>
+        <v>1179.868492747991</v>
       </c>
       <c r="T16" t="n">
-        <v>970.0978258790096</v>
+        <v>1040.569561094414</v>
       </c>
       <c r="U16" t="n">
-        <v>776.7559254026581</v>
+        <v>1040.569561094414</v>
       </c>
       <c r="V16" t="n">
-        <v>609.8685503081782</v>
+        <v>873.6821859999338</v>
       </c>
       <c r="W16" t="n">
-        <v>417.5600781726749</v>
+        <v>681.3737138644306</v>
       </c>
       <c r="X16" t="n">
-        <v>280.1555434151482</v>
+        <v>543.9691791069038</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.968313954523</v>
+        <v>415.7819496462785</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1348.758169180682</v>
+        <v>1348.758169180683</v>
       </c>
       <c r="C17" t="n">
-        <v>1136.310899369588</v>
+        <v>1136.310899369589</v>
       </c>
       <c r="D17" t="n">
-        <v>932.9734234529092</v>
+        <v>932.9734234529101</v>
       </c>
       <c r="E17" t="n">
-        <v>707.674192415114</v>
+        <v>707.6741924151147</v>
       </c>
       <c r="F17" t="n">
-        <v>463.0094905813824</v>
+        <v>463.0094905813825</v>
       </c>
       <c r="G17" t="n">
-        <v>216.4087372363915</v>
+        <v>216.4087372363918</v>
       </c>
       <c r="H17" t="n">
-        <v>53.24543471019597</v>
+        <v>53.24543471019619</v>
       </c>
       <c r="I17" t="n">
-        <v>50.56026112503397</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="J17" t="n">
-        <v>191.211098050456</v>
+        <v>290.0653874626317</v>
       </c>
       <c r="K17" t="n">
-        <v>599.5527353887358</v>
+        <v>532.2933170730498</v>
       </c>
       <c r="L17" t="n">
-        <v>950.0279082283198</v>
+        <v>882.7684899126339</v>
       </c>
       <c r="M17" t="n">
-        <v>1346.148725709433</v>
+        <v>1278.889307393747</v>
       </c>
       <c r="N17" t="n">
-        <v>1727.408363754716</v>
+        <v>1660.148945439031</v>
       </c>
       <c r="O17" t="n">
-        <v>2035.178039388675</v>
+        <v>2134.032328800851</v>
       </c>
       <c r="P17" t="n">
-        <v>2431.808584905965</v>
+        <v>2364.549166590279</v>
       </c>
       <c r="Q17" t="n">
-        <v>2528.013056251699</v>
+        <v>2460.753637936013</v>
       </c>
       <c r="R17" t="n">
-        <v>2528.013056251699</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="S17" t="n">
-        <v>2510.652131493533</v>
+        <v>2510.652131493535</v>
       </c>
       <c r="T17" t="n">
-        <v>2455.852972449668</v>
+        <v>2455.85297244967</v>
       </c>
       <c r="U17" t="n">
-        <v>2370.455464567338</v>
+        <v>2370.45546456734</v>
       </c>
       <c r="V17" t="n">
-        <v>2202.962679319377</v>
+        <v>2202.962679319379</v>
       </c>
       <c r="W17" t="n">
         <v>2009.914238033077</v>
       </c>
       <c r="X17" t="n">
-        <v>1797.370586410668</v>
+        <v>1797.370586410669</v>
       </c>
       <c r="Y17" t="n">
-        <v>1573.315219842603</v>
+        <v>1573.315219842605</v>
       </c>
     </row>
     <row r="18">
@@ -5583,16 +5583,16 @@
         <v>347.204962345093</v>
       </c>
       <c r="G18" t="n">
-        <v>218.4854213826321</v>
+        <v>218.4854213826322</v>
       </c>
       <c r="H18" t="n">
         <v>118.6340891459463</v>
       </c>
       <c r="I18" t="n">
-        <v>50.56026112503397</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="J18" t="n">
-        <v>111.6439940710715</v>
+        <v>111.6439940710716</v>
       </c>
       <c r="K18" t="n">
         <v>342.5524419455398</v>
@@ -5601,31 +5601,31 @@
         <v>710.2808223448542</v>
       </c>
       <c r="M18" t="n">
-        <v>1197.539012542098</v>
+        <v>1157.509443032272</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.058810649307</v>
+        <v>1671.058810649309</v>
       </c>
       <c r="O18" t="n">
-        <v>2065.347920439181</v>
+        <v>2065.347920439184</v>
       </c>
       <c r="P18" t="n">
-        <v>2369.120574000483</v>
+        <v>2369.120574000486</v>
       </c>
       <c r="Q18" t="n">
-        <v>2528.013056251699</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="R18" t="n">
-        <v>2468.785032108869</v>
+        <v>2508.814601618697</v>
       </c>
       <c r="S18" t="n">
-        <v>2316.151954881995</v>
+        <v>2356.181524391823</v>
       </c>
       <c r="T18" t="n">
-        <v>2127.502962162454</v>
+        <v>2167.532531672281</v>
       </c>
       <c r="U18" t="n">
-        <v>1909.008759169596</v>
+        <v>1949.038328679424</v>
       </c>
       <c r="V18" t="n">
         <v>1720.642706127758</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.68974180725573</v>
+        <v>50.68974180725596</v>
       </c>
       <c r="C19" t="n">
-        <v>50.56026112503397</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="D19" t="n">
-        <v>50.56026112503397</v>
+        <v>50.56026112503403</v>
       </c>
       <c r="E19" t="n">
-        <v>50.56026112503397</v>
+        <v>57.56040958584535</v>
       </c>
       <c r="F19" t="n">
-        <v>50.56026112503397</v>
+        <v>74.22782737347093</v>
       </c>
       <c r="G19" t="n">
-        <v>50.56026112503397</v>
+        <v>74.22782737347093</v>
       </c>
       <c r="H19" t="n">
-        <v>50.56026112503397</v>
+        <v>74.22782737347093</v>
       </c>
       <c r="I19" t="n">
-        <v>50.56026112503397</v>
+        <v>74.22782737347093</v>
       </c>
       <c r="J19" t="n">
-        <v>50.56026112503397</v>
+        <v>74.22782737347093</v>
       </c>
       <c r="K19" t="n">
-        <v>85.01971771792785</v>
+        <v>108.6872839663648</v>
       </c>
       <c r="L19" t="n">
-        <v>186.7212467851895</v>
+        <v>210.3888130336265</v>
       </c>
       <c r="M19" t="n">
-        <v>305.8686966334785</v>
+        <v>329.5362628819154</v>
       </c>
       <c r="N19" t="n">
-        <v>425.4175439012791</v>
+        <v>449.0851101497161</v>
       </c>
       <c r="O19" t="n">
-        <v>548.5892668216638</v>
+        <v>548.5892668216654</v>
       </c>
       <c r="P19" t="n">
-        <v>612.4480867592792</v>
+        <v>612.4480867592808</v>
       </c>
       <c r="Q19" t="n">
-        <v>612.4480867592792</v>
+        <v>612.4480867592808</v>
       </c>
       <c r="R19" t="n">
-        <v>612.4480867592792</v>
+        <v>612.4480867592808</v>
       </c>
       <c r="S19" t="n">
-        <v>568.355708159599</v>
+        <v>568.3557081596003</v>
       </c>
       <c r="T19" t="n">
-        <v>504.6953360150226</v>
+        <v>504.6953360150239</v>
       </c>
       <c r="U19" t="n">
-        <v>386.9919950476713</v>
+        <v>386.9919950476723</v>
       </c>
       <c r="V19" t="n">
-        <v>295.7431794621918</v>
+        <v>295.7431794621927</v>
       </c>
       <c r="W19" t="n">
-        <v>179.0732668356889</v>
+        <v>179.0732668356896</v>
       </c>
       <c r="X19" t="n">
-        <v>117.3072915871626</v>
+        <v>117.3072915871631</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.75862163553761</v>
+        <v>64.75862163553801</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1348.758169180682</v>
+        <v>1348.758169180684</v>
       </c>
       <c r="C20" t="n">
-        <v>1136.310899369587</v>
+        <v>1136.310899369589</v>
       </c>
       <c r="D20" t="n">
-        <v>932.9734234529087</v>
+        <v>932.9734234529102</v>
       </c>
       <c r="E20" t="n">
-        <v>707.6741924151136</v>
+        <v>707.6741924151148</v>
       </c>
       <c r="F20" t="n">
-        <v>463.0094905813819</v>
+        <v>463.0094905813829</v>
       </c>
       <c r="G20" t="n">
-        <v>216.4087372363915</v>
+        <v>216.408737236392</v>
       </c>
       <c r="H20" t="n">
-        <v>53.24543471019598</v>
+        <v>53.2454347101962</v>
       </c>
       <c r="I20" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="J20" t="n">
-        <v>123.9516797347703</v>
+        <v>123.9516797347704</v>
       </c>
       <c r="K20" t="n">
-        <v>521.2427264765556</v>
+        <v>532.2933170730498</v>
       </c>
       <c r="L20" t="n">
-        <v>871.7178993161397</v>
+        <v>882.7684899126339</v>
       </c>
       <c r="M20" t="n">
-        <v>1267.838716797253</v>
+        <v>1278.889307393747</v>
       </c>
       <c r="N20" t="n">
-        <v>1815.212062570398</v>
+        <v>1660.148945439031</v>
       </c>
       <c r="O20" t="n">
-        <v>2122.981738204357</v>
+        <v>1967.918621072989</v>
       </c>
       <c r="P20" t="n">
-        <v>2353.498575993785</v>
+        <v>2198.435458862418</v>
       </c>
       <c r="Q20" t="n">
-        <v>2449.703047339518</v>
+        <v>2449.703047339521</v>
       </c>
       <c r="R20" t="n">
-        <v>2528.013056251699</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="S20" t="n">
-        <v>2510.652131493533</v>
+        <v>2510.652131493535</v>
       </c>
       <c r="T20" t="n">
-        <v>2455.852972449668</v>
+        <v>2455.85297244967</v>
       </c>
       <c r="U20" t="n">
-        <v>2370.455464567337</v>
+        <v>2370.455464567341</v>
       </c>
       <c r="V20" t="n">
-        <v>2202.962679319377</v>
+        <v>2202.96267931938</v>
       </c>
       <c r="W20" t="n">
-        <v>2009.914238033076</v>
+        <v>2009.914238033079</v>
       </c>
       <c r="X20" t="n">
-        <v>1797.370586410667</v>
+        <v>1797.370586410669</v>
       </c>
       <c r="Y20" t="n">
-        <v>1573.315219842603</v>
+        <v>1573.315219842605</v>
       </c>
     </row>
     <row r="21">
@@ -5820,13 +5820,13 @@
         <v>347.204962345093</v>
       </c>
       <c r="G21" t="n">
-        <v>218.4854213826321</v>
+        <v>218.4854213826322</v>
       </c>
       <c r="H21" t="n">
         <v>118.6340891459463</v>
       </c>
       <c r="I21" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="J21" t="n">
         <v>111.6439940710716</v>
@@ -5841,16 +5841,16 @@
         <v>1197.539012542098</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.058810649307</v>
+        <v>1671.05881064931</v>
       </c>
       <c r="O21" t="n">
-        <v>2065.347920439182</v>
+        <v>2065.347920439184</v>
       </c>
       <c r="P21" t="n">
-        <v>2369.120574000483</v>
+        <v>2369.120574000486</v>
       </c>
       <c r="Q21" t="n">
-        <v>2528.013056251699</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="R21" t="n">
         <v>2508.814601618697</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.68974180725574</v>
+        <v>50.68974180725596</v>
       </c>
       <c r="C22" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="D22" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="E22" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="F22" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="G22" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="H22" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="I22" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="J22" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="K22" t="n">
-        <v>108.6872839663632</v>
+        <v>85.0197177179279</v>
       </c>
       <c r="L22" t="n">
-        <v>210.3888130336249</v>
+        <v>186.7212467851896</v>
       </c>
       <c r="M22" t="n">
-        <v>329.5362628819138</v>
+        <v>305.8686966334785</v>
       </c>
       <c r="N22" t="n">
-        <v>449.0851101497145</v>
+        <v>425.4175439012792</v>
       </c>
       <c r="O22" t="n">
-        <v>548.5892668216638</v>
+        <v>524.9217005732285</v>
       </c>
       <c r="P22" t="n">
-        <v>612.4480867592792</v>
+        <v>588.7805205108439</v>
       </c>
       <c r="Q22" t="n">
-        <v>612.4480867592792</v>
+        <v>592.5496785540521</v>
       </c>
       <c r="R22" t="n">
-        <v>612.4480867592792</v>
+        <v>612.4480867592808</v>
       </c>
       <c r="S22" t="n">
-        <v>568.355708159599</v>
+        <v>568.3557081596003</v>
       </c>
       <c r="T22" t="n">
-        <v>504.6953360150226</v>
+        <v>504.6953360150239</v>
       </c>
       <c r="U22" t="n">
-        <v>386.9919950476713</v>
+        <v>386.9919950476723</v>
       </c>
       <c r="V22" t="n">
-        <v>295.7431794621918</v>
+        <v>295.7431794621927</v>
       </c>
       <c r="W22" t="n">
-        <v>179.0732668356889</v>
+        <v>179.0732668356896</v>
       </c>
       <c r="X22" t="n">
-        <v>117.3072915871626</v>
+        <v>117.3072915871631</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.75862163553762</v>
+        <v>64.75862163553801</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1348.758169180682</v>
+        <v>1348.758169180684</v>
       </c>
       <c r="C23" t="n">
-        <v>1136.310899369588</v>
+        <v>1136.310899369589</v>
       </c>
       <c r="D23" t="n">
-        <v>932.9734234529092</v>
+        <v>932.9734234529102</v>
       </c>
       <c r="E23" t="n">
-        <v>707.674192415114</v>
+        <v>707.6741924151148</v>
       </c>
       <c r="F23" t="n">
-        <v>463.0094905813824</v>
+        <v>463.0094905813829</v>
       </c>
       <c r="G23" t="n">
-        <v>216.4087372363915</v>
+        <v>216.4087372363919</v>
       </c>
       <c r="H23" t="n">
-        <v>53.24543471019598</v>
+        <v>53.24543471019621</v>
       </c>
       <c r="I23" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="J23" t="n">
-        <v>123.9516797347703</v>
+        <v>279.0147968661409</v>
       </c>
       <c r="K23" t="n">
-        <v>366.1796093451885</v>
+        <v>521.242726476559</v>
       </c>
       <c r="L23" t="n">
-        <v>716.6547821847724</v>
+        <v>871.7178993161431</v>
       </c>
       <c r="M23" t="n">
-        <v>1112.775599665885</v>
+        <v>1267.838716797256</v>
       </c>
       <c r="N23" t="n">
-        <v>1660.148945439031</v>
+        <v>1649.09835484254</v>
       </c>
       <c r="O23" t="n">
-        <v>2134.032328800851</v>
+        <v>1956.868030476498</v>
       </c>
       <c r="P23" t="n">
-        <v>2431.808584905966</v>
+        <v>2187.384868265927</v>
       </c>
       <c r="Q23" t="n">
-        <v>2528.013056251699</v>
+        <v>2449.703047339522</v>
       </c>
       <c r="R23" t="n">
-        <v>2528.013056251699</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="S23" t="n">
-        <v>2510.652131493533</v>
+        <v>2510.652131493536</v>
       </c>
       <c r="T23" t="n">
-        <v>2455.852972449668</v>
+        <v>2455.852972449671</v>
       </c>
       <c r="U23" t="n">
-        <v>2370.455464567338</v>
+        <v>2370.45546456734</v>
       </c>
       <c r="V23" t="n">
-        <v>2202.962679319377</v>
+        <v>2202.962679319379</v>
       </c>
       <c r="W23" t="n">
-        <v>2009.914238033076</v>
+        <v>2009.914238033078</v>
       </c>
       <c r="X23" t="n">
-        <v>1797.370586410668</v>
+        <v>1797.370586410669</v>
       </c>
       <c r="Y23" t="n">
-        <v>1573.315219842604</v>
+        <v>1573.315219842605</v>
       </c>
     </row>
     <row r="24">
@@ -6057,43 +6057,43 @@
         <v>347.204962345093</v>
       </c>
       <c r="G24" t="n">
-        <v>218.4854213826321</v>
+        <v>218.4854213826322</v>
       </c>
       <c r="H24" t="n">
         <v>118.6340891459463</v>
       </c>
       <c r="I24" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="J24" t="n">
-        <v>111.6439940710716</v>
+        <v>71.61442456124607</v>
       </c>
       <c r="K24" t="n">
-        <v>342.5524419455398</v>
+        <v>302.5228724357143</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2808223448542</v>
+        <v>670.2512528350287</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.539012542098</v>
+        <v>1157.509443032273</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.058810649307</v>
+        <v>1671.05881064931</v>
       </c>
       <c r="O24" t="n">
-        <v>2065.347920439182</v>
+        <v>2065.347920439184</v>
       </c>
       <c r="P24" t="n">
-        <v>2369.120574000483</v>
+        <v>2369.120574000486</v>
       </c>
       <c r="Q24" t="n">
-        <v>2528.013056251699</v>
+        <v>2528.013056251702</v>
       </c>
       <c r="R24" t="n">
-        <v>2468.785032108869</v>
+        <v>2508.814601618697</v>
       </c>
       <c r="S24" t="n">
-        <v>2316.151954881996</v>
+        <v>2356.181524391823</v>
       </c>
       <c r="T24" t="n">
         <v>2167.532531672281</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.68974180725574</v>
+        <v>50.68974180725596</v>
       </c>
       <c r="C25" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="D25" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="E25" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="F25" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="G25" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="H25" t="n">
-        <v>50.56026112503399</v>
+        <v>50.56026112503404</v>
       </c>
       <c r="I25" t="n">
-        <v>50.56026112503399</v>
+        <v>74.22782737347093</v>
       </c>
       <c r="J25" t="n">
-        <v>50.56026112503399</v>
+        <v>74.22782737347093</v>
       </c>
       <c r="K25" t="n">
-        <v>85.01971771792786</v>
+        <v>108.6872839663648</v>
       </c>
       <c r="L25" t="n">
-        <v>186.7212467851895</v>
+        <v>210.3888130336265</v>
       </c>
       <c r="M25" t="n">
-        <v>305.8686966334785</v>
+        <v>329.5362628819154</v>
       </c>
       <c r="N25" t="n">
-        <v>425.4175439012792</v>
+        <v>449.0851101497161</v>
       </c>
       <c r="O25" t="n">
-        <v>524.9217005732285</v>
+        <v>548.5892668216654</v>
       </c>
       <c r="P25" t="n">
-        <v>588.7805205108439</v>
+        <v>612.4480867592808</v>
       </c>
       <c r="Q25" t="n">
-        <v>612.4480867592792</v>
+        <v>612.4480867592808</v>
       </c>
       <c r="R25" t="n">
-        <v>612.4480867592792</v>
+        <v>612.4480867592808</v>
       </c>
       <c r="S25" t="n">
-        <v>568.355708159599</v>
+        <v>568.3557081596003</v>
       </c>
       <c r="T25" t="n">
-        <v>504.6953360150226</v>
+        <v>504.6953360150239</v>
       </c>
       <c r="U25" t="n">
-        <v>386.9919950476713</v>
+        <v>386.9919950476723</v>
       </c>
       <c r="V25" t="n">
-        <v>295.7431794621918</v>
+        <v>295.7431794621927</v>
       </c>
       <c r="W25" t="n">
-        <v>179.0732668356889</v>
+        <v>179.0732668356896</v>
       </c>
       <c r="X25" t="n">
-        <v>117.3072915871626</v>
+        <v>117.3072915871631</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.75862163553762</v>
+        <v>64.75862163553801</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1403.088672910909</v>
       </c>
       <c r="D26" t="n">
-        <v>1157.446630963406</v>
+        <v>1157.446630963407</v>
       </c>
       <c r="E26" t="n">
-        <v>889.8428338947865</v>
+        <v>889.842833894787</v>
       </c>
       <c r="F26" t="n">
-        <v>602.8735660302304</v>
+        <v>602.8735660302309</v>
       </c>
       <c r="G26" t="n">
-        <v>313.9682466544152</v>
+        <v>313.9682466544151</v>
       </c>
       <c r="H26" t="n">
         <v>108.5003780973952</v>
       </c>
       <c r="I26" t="n">
-        <v>63.5106384814088</v>
+        <v>63.51063848140879</v>
       </c>
       <c r="J26" t="n">
-        <v>261.5530596521957</v>
+        <v>261.5530596521958</v>
       </c>
       <c r="K26" t="n">
-        <v>628.4319918236644</v>
+        <v>628.4319918236647</v>
       </c>
       <c r="L26" t="n">
         <v>1103.558167224299</v>
@@ -6245,19 +6245,19 @@
         <v>2917.829146418285</v>
       </c>
       <c r="Q26" t="n">
-        <v>3138.684620325071</v>
+        <v>3138.684620325069</v>
       </c>
       <c r="R26" t="n">
-        <v>3175.53192407044</v>
+        <v>3175.531924070439</v>
       </c>
       <c r="S26" t="n">
-        <v>3115.866433281449</v>
+        <v>3115.866433281448</v>
       </c>
       <c r="T26" t="n">
-        <v>3018.76270820676</v>
+        <v>3018.762708206759</v>
       </c>
       <c r="U26" t="n">
-        <v>2891.060634293606</v>
+        <v>2891.060634293605</v>
       </c>
       <c r="V26" t="n">
         <v>2681.26328301482</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>942.4194574635561</v>
+        <v>942.4194574635554</v>
       </c>
       <c r="C27" t="n">
-        <v>780.715784704511</v>
+        <v>780.7157847045102</v>
       </c>
       <c r="D27" t="n">
-        <v>641.8771476947231</v>
+        <v>641.8771476947222</v>
       </c>
       <c r="E27" t="n">
-        <v>494.8491377515943</v>
+        <v>494.8491377515935</v>
       </c>
       <c r="F27" t="n">
-        <v>360.1553397014686</v>
+        <v>360.1553397014678</v>
       </c>
       <c r="G27" t="n">
         <v>231.4357987390069</v>
@@ -6300,55 +6300,55 @@
         <v>131.5844665023211</v>
       </c>
       <c r="I27" t="n">
-        <v>63.5106384814088</v>
+        <v>63.51063848140879</v>
       </c>
       <c r="J27" t="n">
-        <v>124.5943714274465</v>
+        <v>124.5943714274456</v>
       </c>
       <c r="K27" t="n">
-        <v>355.5028193019148</v>
+        <v>355.5028193019138</v>
       </c>
       <c r="L27" t="n">
-        <v>723.2311997012291</v>
+        <v>723.2311997012282</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.489389898473</v>
+        <v>1210.489389898472</v>
       </c>
       <c r="N27" t="n">
-        <v>1724.03875751551</v>
+        <v>1724.038757515509</v>
       </c>
       <c r="O27" t="n">
-        <v>2118.327867305385</v>
+        <v>2118.327867305384</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.100520866687</v>
+        <v>2422.100520866686</v>
       </c>
       <c r="Q27" t="n">
-        <v>2580.993003117902</v>
+        <v>2580.993003117901</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.764978975073</v>
+        <v>2521.764978975072</v>
       </c>
       <c r="S27" t="n">
-        <v>2369.131901748199</v>
+        <v>2369.131901748198</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.482909028657</v>
+        <v>2180.482909028656</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.9887060358</v>
+        <v>1961.988706035799</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.593083484134</v>
+        <v>1733.593083484133</v>
       </c>
       <c r="W27" t="n">
-        <v>1492.277214717444</v>
+        <v>1492.277214717443</v>
       </c>
       <c r="X27" t="n">
-        <v>1294.360226595238</v>
+        <v>1294.360226595237</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.838900244817</v>
+        <v>1101.838900244816</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>272.6099845391917</v>
+        <v>272.6099845391913</v>
       </c>
       <c r="C28" t="n">
-        <v>230.1759378261455</v>
+        <v>230.1759378261451</v>
       </c>
       <c r="D28" t="n">
-        <v>204.2859674791817</v>
+        <v>204.2859674791815</v>
       </c>
       <c r="E28" t="n">
-        <v>179.4588760657741</v>
+        <v>179.4588760657739</v>
       </c>
       <c r="F28" t="n">
-        <v>154.1601439168248</v>
+        <v>154.1601439168246</v>
       </c>
       <c r="G28" t="n">
-        <v>112.4298290465465</v>
+        <v>112.4298290465464</v>
       </c>
       <c r="H28" t="n">
-        <v>80.30588570557613</v>
+        <v>80.30588570557606</v>
       </c>
       <c r="I28" t="n">
-        <v>63.5106384814088</v>
+        <v>63.51063848140879</v>
       </c>
       <c r="J28" t="n">
         <v>129.8199973599552</v>
       </c>
       <c r="K28" t="n">
-        <v>288.9304565138996</v>
+        <v>288.9304565138997</v>
       </c>
       <c r="L28" t="n">
-        <v>390.6319855811612</v>
+        <v>390.6319855811614</v>
       </c>
       <c r="M28" t="n">
-        <v>634.4304379905008</v>
+        <v>634.4304379905009</v>
       </c>
       <c r="N28" t="n">
-        <v>782.142015544541</v>
+        <v>819.2960411563347</v>
       </c>
       <c r="O28" t="n">
-        <v>1006.297174777541</v>
+        <v>918.800197828284</v>
       </c>
       <c r="P28" t="n">
-        <v>1194.806997276207</v>
+        <v>1107.31002032695</v>
       </c>
       <c r="Q28" t="n">
-        <v>1194.806997276207</v>
+        <v>1194.806997276205</v>
       </c>
       <c r="R28" t="n">
-        <v>1172.804857737811</v>
+        <v>1172.804857737809</v>
       </c>
       <c r="S28" t="n">
-        <v>1086.407913107306</v>
+        <v>1086.407913107305</v>
       </c>
       <c r="T28" t="n">
-        <v>980.442974931905</v>
+        <v>980.4429749319042</v>
       </c>
       <c r="U28" t="n">
-        <v>820.4350679337292</v>
+        <v>820.4350679337285</v>
       </c>
       <c r="V28" t="n">
-        <v>686.8816863174254</v>
+        <v>686.8816863174247</v>
       </c>
       <c r="W28" t="n">
-        <v>527.907207660098</v>
+        <v>527.9072076600975</v>
       </c>
       <c r="X28" t="n">
-        <v>423.8366663807474</v>
+        <v>423.8366663807468</v>
       </c>
       <c r="Y28" t="n">
-        <v>328.983430398298</v>
+        <v>328.9834303982975</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1657.840508752828</v>
+        <v>1657.840508752827</v>
       </c>
       <c r="C29" t="n">
-        <v>1403.088672910909</v>
+        <v>1403.088672910908</v>
       </c>
       <c r="D29" t="n">
-        <v>1157.446630963406</v>
+        <v>1157.446630963405</v>
       </c>
       <c r="E29" t="n">
-        <v>889.8428338947863</v>
+        <v>889.8428338947858</v>
       </c>
       <c r="F29" t="n">
-        <v>602.8735660302302</v>
+        <v>602.8735660302298</v>
       </c>
       <c r="G29" t="n">
-        <v>313.9682466544151</v>
+        <v>313.9682466544145</v>
       </c>
       <c r="H29" t="n">
         <v>108.5003780973952</v>
@@ -6470,7 +6470,7 @@
         <v>1103.558167224299</v>
       </c>
       <c r="M29" t="n">
-        <v>1624.329987266463</v>
+        <v>1624.329987266462</v>
       </c>
       <c r="N29" t="n">
         <v>2130.240627872797</v>
@@ -6479,19 +6479,19 @@
         <v>2562.661306067806</v>
       </c>
       <c r="P29" t="n">
-        <v>2917.829146418286</v>
+        <v>2917.829146418285</v>
       </c>
       <c r="Q29" t="n">
-        <v>3138.68462032507</v>
+        <v>3138.684620325069</v>
       </c>
       <c r="R29" t="n">
         <v>3175.531924070439</v>
       </c>
       <c r="S29" t="n">
-        <v>3115.866433281449</v>
+        <v>3115.866433281448</v>
       </c>
       <c r="T29" t="n">
-        <v>3018.76270820676</v>
+        <v>3018.762708206759</v>
       </c>
       <c r="U29" t="n">
         <v>2891.060634293605</v>
@@ -6540,7 +6540,7 @@
         <v>63.51063848140879</v>
       </c>
       <c r="J30" t="n">
-        <v>124.5943714274464</v>
+        <v>124.5943714274456</v>
       </c>
       <c r="K30" t="n">
         <v>355.5028193019138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>272.6099845391913</v>
+        <v>272.6099845391914</v>
       </c>
       <c r="C31" t="n">
-        <v>230.1759378261451</v>
+        <v>230.1759378261452</v>
       </c>
       <c r="D31" t="n">
-        <v>204.2859674791815</v>
+        <v>204.2859674791816</v>
       </c>
       <c r="E31" t="n">
-        <v>179.4588760657739</v>
+        <v>179.458876065774</v>
       </c>
       <c r="F31" t="n">
-        <v>154.1601439168246</v>
+        <v>154.1601439168247</v>
       </c>
       <c r="G31" t="n">
         <v>112.4298290465464</v>
       </c>
       <c r="H31" t="n">
-        <v>80.30588570557606</v>
+        <v>80.30588570557607</v>
       </c>
       <c r="I31" t="n">
         <v>63.51063848140879</v>
@@ -6625,46 +6625,46 @@
         <v>288.9304565138997</v>
       </c>
       <c r="L31" t="n">
-        <v>515.282988142212</v>
+        <v>390.6319855811614</v>
       </c>
       <c r="M31" t="n">
-        <v>759.0814405515516</v>
+        <v>575.0961913274839</v>
       </c>
       <c r="N31" t="n">
-        <v>878.6302878193522</v>
+        <v>819.2960411563351</v>
       </c>
       <c r="O31" t="n">
-        <v>1043.451200389335</v>
+        <v>918.8001978282845</v>
       </c>
       <c r="P31" t="n">
-        <v>1107.31002032695</v>
+        <v>1107.310020326951</v>
       </c>
       <c r="Q31" t="n">
-        <v>1194.806997276205</v>
+        <v>1194.806997276206</v>
       </c>
       <c r="R31" t="n">
-        <v>1172.804857737809</v>
+        <v>1172.80485773781</v>
       </c>
       <c r="S31" t="n">
         <v>1086.407913107305</v>
       </c>
       <c r="T31" t="n">
-        <v>980.4429749319042</v>
+        <v>980.4429749319044</v>
       </c>
       <c r="U31" t="n">
-        <v>820.4350679337285</v>
+        <v>820.4350679337286</v>
       </c>
       <c r="V31" t="n">
-        <v>686.8816863174247</v>
+        <v>686.8816863174249</v>
       </c>
       <c r="W31" t="n">
-        <v>527.9072076600975</v>
+        <v>527.9072076600976</v>
       </c>
       <c r="X31" t="n">
-        <v>423.8366663807468</v>
+        <v>423.836666380747</v>
       </c>
       <c r="Y31" t="n">
-        <v>328.9834303982975</v>
+        <v>328.9834303982976</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1571.981551510788</v>
+        <v>1571.98155151079</v>
       </c>
       <c r="C32" t="n">
-        <v>1328.981360654512</v>
+        <v>1328.981360654513</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.090963692651</v>
+        <v>1095.090963692652</v>
       </c>
       <c r="E32" t="n">
-        <v>839.2388116096738</v>
+        <v>839.2388116096749</v>
       </c>
       <c r="F32" t="n">
-        <v>564.0211887307601</v>
+        <v>564.021188730761</v>
       </c>
       <c r="G32" t="n">
-        <v>286.8675143405871</v>
+        <v>286.8675143405879</v>
       </c>
       <c r="H32" t="n">
-        <v>93.15129076920934</v>
+        <v>93.15129076920948</v>
       </c>
       <c r="I32" t="n">
-        <v>59.91319613886525</v>
+        <v>59.91319613886528</v>
       </c>
       <c r="J32" t="n">
-        <v>269.4734045600802</v>
+        <v>269.4734045600801</v>
       </c>
       <c r="K32" t="n">
-        <v>647.8701239819769</v>
+        <v>552.4692447507698</v>
       </c>
       <c r="L32" t="n">
-        <v>998.3452968215609</v>
+        <v>1039.113207401832</v>
       </c>
       <c r="M32" t="n">
-        <v>1394.466114302674</v>
+        <v>1571.402814694424</v>
       </c>
       <c r="N32" t="n">
-        <v>1911.894542159436</v>
+        <v>2088.831242551186</v>
       </c>
       <c r="O32" t="n">
-        <v>2355.833007604874</v>
+        <v>2532.769707996623</v>
       </c>
       <c r="P32" t="n">
-        <v>2722.518635205781</v>
+        <v>2899.45533559753</v>
       </c>
       <c r="Q32" t="n">
-        <v>2954.891896362993</v>
+        <v>2995.659806943264</v>
       </c>
       <c r="R32" t="n">
-        <v>2995.659806943262</v>
+        <v>2995.659806943264</v>
       </c>
       <c r="S32" t="n">
-        <v>2947.745961139914</v>
+        <v>2947.745961139916</v>
       </c>
       <c r="T32" t="n">
-        <v>2862.393881050867</v>
+        <v>2862.393881050869</v>
       </c>
       <c r="U32" t="n">
-        <v>2746.443452123355</v>
+        <v>2746.443452123357</v>
       </c>
       <c r="V32" t="n">
-        <v>2548.397745830212</v>
+        <v>2548.397745830214</v>
       </c>
       <c r="W32" t="n">
-        <v>2324.796383498729</v>
+        <v>2324.79638349873</v>
       </c>
       <c r="X32" t="n">
-        <v>2081.699810831138</v>
+        <v>2081.69981083114</v>
       </c>
       <c r="Y32" t="n">
-        <v>1827.091523217892</v>
+        <v>1827.091523217893</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>938.822015121012</v>
+        <v>938.8220151210124</v>
       </c>
       <c r="C33" t="n">
-        <v>777.1183423619667</v>
+        <v>777.1183423619673</v>
       </c>
       <c r="D33" t="n">
-        <v>638.2797053521788</v>
+        <v>638.2797053521795</v>
       </c>
       <c r="E33" t="n">
-        <v>491.2516954090499</v>
+        <v>491.2516954090506</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5578973589243</v>
+        <v>356.5578973589249</v>
       </c>
       <c r="G33" t="n">
         <v>227.8383563964634</v>
@@ -6774,7 +6774,7 @@
         <v>127.9870241597776</v>
       </c>
       <c r="I33" t="n">
-        <v>59.91319613886525</v>
+        <v>59.91319613886528</v>
       </c>
       <c r="J33" t="n">
         <v>120.9969290849028</v>
@@ -6801,22 +6801,22 @@
         <v>2577.395560775359</v>
       </c>
       <c r="R33" t="n">
-        <v>2518.167536632528</v>
+        <v>2518.167536632529</v>
       </c>
       <c r="S33" t="n">
-        <v>2365.534459405654</v>
+        <v>2365.534459405655</v>
       </c>
       <c r="T33" t="n">
         <v>2176.885466686113</v>
       </c>
       <c r="U33" t="n">
-        <v>1958.391263693255</v>
+        <v>1958.391263693256</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.995641141589</v>
+        <v>1729.99564114159</v>
       </c>
       <c r="W33" t="n">
-        <v>1488.679772374899</v>
+        <v>1488.6797723749</v>
       </c>
       <c r="X33" t="n">
         <v>1290.762784252694</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>186.7510272971519</v>
+        <v>186.7510272971527</v>
       </c>
       <c r="C34" t="n">
-        <v>156.068625569748</v>
+        <v>156.0686255697488</v>
       </c>
       <c r="D34" t="n">
-        <v>141.9303002084266</v>
+        <v>141.9303002084272</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8548537806613</v>
+        <v>128.8548537806618</v>
       </c>
       <c r="F34" t="n">
-        <v>115.3077666173543</v>
+        <v>115.3077666173547</v>
       </c>
       <c r="G34" t="n">
-        <v>85.32909673271834</v>
+        <v>85.32909673271863</v>
       </c>
       <c r="H34" t="n">
-        <v>64.95679837739026</v>
+        <v>64.95679837739041</v>
       </c>
       <c r="I34" t="n">
-        <v>59.91319613886525</v>
+        <v>59.91319613886528</v>
       </c>
       <c r="J34" t="n">
-        <v>59.91319613886525</v>
+        <v>137.7403422678396</v>
       </c>
       <c r="K34" t="n">
-        <v>128.0700885478294</v>
+        <v>308.368588672212</v>
       </c>
       <c r="L34" t="n">
-        <v>229.7716176150911</v>
+        <v>546.2389075509521</v>
       </c>
       <c r="M34" t="n">
-        <v>485.0878572748587</v>
+        <v>665.3863573992411</v>
       </c>
       <c r="N34" t="n">
-        <v>604.6367045426593</v>
+        <v>839.8202585538232</v>
       </c>
       <c r="O34" t="n">
-        <v>840.3096510260873</v>
+        <v>939.3244152257726</v>
       </c>
       <c r="P34" t="n">
-        <v>904.1684709637027</v>
+        <v>1003.183235163388</v>
       </c>
       <c r="Q34" t="n">
-        <v>1003.183235163386</v>
+        <v>1003.183235163388</v>
       </c>
       <c r="R34" t="n">
-        <v>992.9327406106323</v>
+        <v>992.932740610634</v>
       </c>
       <c r="S34" t="n">
-        <v>918.28744096577</v>
+        <v>918.2874409657716</v>
       </c>
       <c r="T34" t="n">
-        <v>824.0741477760115</v>
+        <v>824.074147776013</v>
       </c>
       <c r="U34" t="n">
-        <v>675.817885763478</v>
+        <v>675.8178857634794</v>
       </c>
       <c r="V34" t="n">
-        <v>554.0161491328164</v>
+        <v>554.0161491328176</v>
       </c>
       <c r="W34" t="n">
-        <v>406.7933154611313</v>
+        <v>406.7933154611325</v>
       </c>
       <c r="X34" t="n">
-        <v>314.4744191674229</v>
+        <v>314.474419167424</v>
       </c>
       <c r="Y34" t="n">
-        <v>231.3728281706159</v>
+        <v>231.3728281706169</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1153.139657163515</v>
       </c>
       <c r="D35" t="n">
-        <v>947.1335432795149</v>
+        <v>947.1335432795152</v>
       </c>
       <c r="E35" t="n">
         <v>719.165674274398</v>
@@ -6926,10 +6926,10 @@
         <v>471.8323344733445</v>
       </c>
       <c r="G35" t="n">
-        <v>222.5629431610319</v>
+        <v>222.5629431610317</v>
       </c>
       <c r="H35" t="n">
-        <v>56.73100266751432</v>
+        <v>56.73100266751433</v>
       </c>
       <c r="I35" t="n">
         <v>51.37719111503048</v>
@@ -6941,19 +6941,19 @@
         <v>366.9965393351849</v>
       </c>
       <c r="L35" t="n">
-        <v>880.9698878308583</v>
+        <v>717.471712174769</v>
       </c>
       <c r="M35" t="n">
-        <v>1277.090705311971</v>
+        <v>1113.592529655882</v>
       </c>
       <c r="N35" t="n">
-        <v>1695.175918485906</v>
+        <v>1494.852167701166</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.945594119864</v>
+        <v>1839.447418463774</v>
       </c>
       <c r="P35" t="n">
-        <v>2233.462431909293</v>
+        <v>2233.462431909292</v>
       </c>
       <c r="Q35" t="n">
         <v>2493.165078911115</v>
@@ -6974,7 +6974,7 @@
         <v>2233.134626949914</v>
       </c>
       <c r="W35" t="n">
-        <v>2037.417547696291</v>
+        <v>2037.417547696292</v>
       </c>
       <c r="X35" t="n">
         <v>1822.205258106561</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.2860100971778</v>
+        <v>930.2860100971772</v>
       </c>
       <c r="C36" t="n">
-        <v>768.5823373381327</v>
+        <v>768.5823373381319</v>
       </c>
       <c r="D36" t="n">
-        <v>629.7437003283449</v>
+        <v>629.7437003283439</v>
       </c>
       <c r="E36" t="n">
-        <v>482.715690385216</v>
+        <v>482.7156903852151</v>
       </c>
       <c r="F36" t="n">
-        <v>348.0218923350903</v>
+        <v>348.0218923350895</v>
       </c>
       <c r="G36" t="n">
-        <v>219.3023513726292</v>
+        <v>219.3023513726286</v>
       </c>
       <c r="H36" t="n">
         <v>119.4510191359428</v>
@@ -7014,13 +7014,13 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J36" t="n">
-        <v>112.4609240610681</v>
+        <v>112.460924061068</v>
       </c>
       <c r="K36" t="n">
-        <v>343.3693719355363</v>
+        <v>343.369371935536</v>
       </c>
       <c r="L36" t="n">
-        <v>711.0977523348506</v>
+        <v>711.0977523348508</v>
       </c>
       <c r="M36" t="n">
         <v>1198.355942532095</v>
@@ -7038,28 +7038,28 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.631531608694</v>
+        <v>2509.631531608693</v>
       </c>
       <c r="S36" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.349461662279</v>
+        <v>2168.349461662278</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.855258669422</v>
+        <v>1949.855258669421</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.459636117756</v>
+        <v>1721.459636117755</v>
       </c>
       <c r="W36" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.22677922886</v>
+        <v>1282.226779228859</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.705452878439</v>
+        <v>1089.705452878438</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.26969657134978</v>
+        <v>54.17530976457409</v>
       </c>
       <c r="C37" t="n">
-        <v>53.47157792180617</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="D37" t="n">
-        <v>53.47157792180617</v>
+        <v>64.84960427301019</v>
       </c>
       <c r="E37" t="n">
-        <v>53.47157792180617</v>
+        <v>79.36374507376823</v>
       </c>
       <c r="F37" t="n">
-        <v>53.47157792180617</v>
+        <v>93.41563078962183</v>
       </c>
       <c r="G37" t="n">
-        <v>51.37719111503048</v>
+        <v>91.32124398284614</v>
       </c>
       <c r="H37" t="n">
-        <v>51.37719111503048</v>
+        <v>98.68374020939991</v>
       </c>
       <c r="I37" t="n">
-        <v>51.37719111503048</v>
+        <v>99.06249906936247</v>
       </c>
       <c r="J37" t="n">
-        <v>101.1568858761381</v>
+        <v>99.06249906936247</v>
       </c>
       <c r="K37" t="n">
-        <v>135.616342469032</v>
+        <v>133.5219556622563</v>
       </c>
       <c r="L37" t="n">
-        <v>237.3178715362937</v>
+        <v>235.223484729518</v>
       </c>
       <c r="M37" t="n">
-        <v>356.4653213845826</v>
+        <v>354.370934577807</v>
       </c>
       <c r="N37" t="n">
-        <v>476.0141686523833</v>
+        <v>473.9197818456076</v>
       </c>
       <c r="O37" t="n">
-        <v>575.5183253243326</v>
+        <v>573.423938517557</v>
       </c>
       <c r="P37" t="n">
-        <v>639.377145261948</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="Q37" t="n">
-        <v>639.377145261948</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="R37" t="n">
-        <v>639.377145261948</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="S37" t="n">
-        <v>592.6161286949459</v>
+        <v>590.5217418881703</v>
       </c>
       <c r="T37" t="n">
-        <v>526.2871185830478</v>
+        <v>524.192731776272</v>
       </c>
       <c r="U37" t="n">
-        <v>405.9151396483746</v>
+        <v>403.8207528415988</v>
       </c>
       <c r="V37" t="n">
-        <v>311.9976860955733</v>
+        <v>309.9032992887975</v>
       </c>
       <c r="W37" t="n">
-        <v>192.6591355017485</v>
+        <v>190.5647486949728</v>
       </c>
       <c r="X37" t="n">
-        <v>128.2245222859003</v>
+        <v>126.1301354791246</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.00721436695352</v>
+        <v>70.91282756017782</v>
       </c>
     </row>
     <row r="38">
@@ -7154,43 +7154,43 @@
         <v>1153.139657163515</v>
       </c>
       <c r="D38" t="n">
-        <v>947.1335432795152</v>
+        <v>947.1335432795148</v>
       </c>
       <c r="E38" t="n">
-        <v>719.165674274398</v>
+        <v>719.1656742743978</v>
       </c>
       <c r="F38" t="n">
-        <v>471.8323344733445</v>
+        <v>471.8323344733442</v>
       </c>
       <c r="G38" t="n">
-        <v>222.5629431610319</v>
+        <v>222.5629431610317</v>
       </c>
       <c r="H38" t="n">
-        <v>56.73100266751432</v>
+        <v>56.73100266751431</v>
       </c>
       <c r="I38" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J38" t="n">
-        <v>288.2667853808563</v>
+        <v>161.5941848534172</v>
       </c>
       <c r="K38" t="n">
-        <v>693.9928906473638</v>
+        <v>403.8221144638354</v>
       </c>
       <c r="L38" t="n">
-        <v>1044.468063486948</v>
+        <v>754.2972873034194</v>
       </c>
       <c r="M38" t="n">
-        <v>1440.588880968061</v>
+        <v>1150.418104784532</v>
       </c>
       <c r="N38" t="n">
-        <v>1821.848519013344</v>
+        <v>1531.677742829816</v>
       </c>
       <c r="O38" t="n">
-        <v>2129.618194647303</v>
+        <v>1839.447418463775</v>
       </c>
       <c r="P38" t="n">
-        <v>2360.135032436732</v>
+        <v>2233.462431909293</v>
       </c>
       <c r="Q38" t="n">
         <v>2493.165078911115</v>
@@ -7199,7 +7199,7 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S38" t="n">
-        <v>2548.829993026035</v>
+        <v>2548.829993026036</v>
       </c>
       <c r="T38" t="n">
         <v>2491.362196014849</v>
@@ -7211,7 +7211,7 @@
         <v>2233.134626949914</v>
       </c>
       <c r="W38" t="n">
-        <v>2037.417547696291</v>
+        <v>2037.417547696292</v>
       </c>
       <c r="X38" t="n">
         <v>1822.205258106561</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.2860100971774</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C39" t="n">
-        <v>768.5823373381322</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D39" t="n">
-        <v>629.7437003283444</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E39" t="n">
-        <v>482.7156903852156</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F39" t="n">
-        <v>348.0218923350899</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G39" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359439</v>
       </c>
       <c r="I39" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J39" t="n">
-        <v>112.4609240610681</v>
+        <v>112.460924061068</v>
       </c>
       <c r="K39" t="n">
-        <v>343.3693719355363</v>
+        <v>343.3693719355362</v>
       </c>
       <c r="L39" t="n">
         <v>711.0977523348506</v>
@@ -7281,22 +7281,22 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W39" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.26969657134978</v>
+        <v>54.17530976457407</v>
       </c>
       <c r="C40" t="n">
-        <v>53.47157792180617</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="D40" t="n">
-        <v>53.47157792180617</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="E40" t="n">
-        <v>53.47157792180617</v>
+        <v>65.89133191578856</v>
       </c>
       <c r="F40" t="n">
-        <v>53.47157792180617</v>
+        <v>65.89133191578856</v>
       </c>
       <c r="G40" t="n">
-        <v>51.37719111503048</v>
+        <v>63.7969451090129</v>
       </c>
       <c r="H40" t="n">
-        <v>51.37719111503048</v>
+        <v>71.1594413355667</v>
       </c>
       <c r="I40" t="n">
-        <v>51.37719111503048</v>
+        <v>71.1594413355667</v>
       </c>
       <c r="J40" t="n">
-        <v>51.37719111503048</v>
+        <v>71.1594413355667</v>
       </c>
       <c r="K40" t="n">
-        <v>135.616342469032</v>
+        <v>105.6188979284606</v>
       </c>
       <c r="L40" t="n">
-        <v>237.3178715362937</v>
+        <v>207.3204269957222</v>
       </c>
       <c r="M40" t="n">
-        <v>356.4653213845826</v>
+        <v>326.4678768440112</v>
       </c>
       <c r="N40" t="n">
-        <v>476.0141686523833</v>
+        <v>446.0167241118119</v>
       </c>
       <c r="O40" t="n">
-        <v>575.5183253243326</v>
+        <v>545.5208807837612</v>
       </c>
       <c r="P40" t="n">
-        <v>639.377145261948</v>
+        <v>609.3797007213766</v>
       </c>
       <c r="Q40" t="n">
-        <v>639.377145261948</v>
+        <v>619.9998823217153</v>
       </c>
       <c r="R40" t="n">
-        <v>639.377145261948</v>
+        <v>637.2827584551721</v>
       </c>
       <c r="S40" t="n">
-        <v>592.6161286949459</v>
+        <v>590.52174188817</v>
       </c>
       <c r="T40" t="n">
-        <v>526.2871185830478</v>
+        <v>524.1927317762719</v>
       </c>
       <c r="U40" t="n">
-        <v>405.9151396483746</v>
+        <v>403.8207528415987</v>
       </c>
       <c r="V40" t="n">
-        <v>311.9976860955733</v>
+        <v>309.9032992887974</v>
       </c>
       <c r="W40" t="n">
-        <v>192.6591355017485</v>
+        <v>190.5647486949726</v>
       </c>
       <c r="X40" t="n">
-        <v>128.2245222859003</v>
+        <v>126.1301354791245</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.00721436695352</v>
+        <v>70.91282756017776</v>
       </c>
     </row>
     <row r="41">
@@ -7388,46 +7388,46 @@
         <v>1368.255564941932</v>
       </c>
       <c r="C41" t="n">
-        <v>1153.139657163516</v>
+        <v>1153.139657163515</v>
       </c>
       <c r="D41" t="n">
-        <v>947.1335432795155</v>
+        <v>947.1335432795149</v>
       </c>
       <c r="E41" t="n">
-        <v>719.1656742743985</v>
+        <v>719.1656742743978</v>
       </c>
       <c r="F41" t="n">
-        <v>471.8323344733449</v>
+        <v>471.8323344733441</v>
       </c>
       <c r="G41" t="n">
-        <v>222.5629431610323</v>
+        <v>222.5629431610318</v>
       </c>
       <c r="H41" t="n">
-        <v>56.7310026675143</v>
+        <v>56.73100266751435</v>
       </c>
       <c r="I41" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J41" t="n">
-        <v>288.2667853808563</v>
+        <v>124.7686097247668</v>
       </c>
       <c r="K41" t="n">
-        <v>693.9928906473639</v>
+        <v>366.9965393351849</v>
       </c>
       <c r="L41" t="n">
-        <v>1044.468063486948</v>
+        <v>829.9917641438283</v>
       </c>
       <c r="M41" t="n">
-        <v>1440.588880968061</v>
+        <v>1389.610757281031</v>
       </c>
       <c r="N41" t="n">
-        <v>1821.848519013344</v>
+        <v>1934.368570982404</v>
       </c>
       <c r="O41" t="n">
-        <v>2129.618194647303</v>
+        <v>2242.138246616362</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.135032436732</v>
+        <v>2472.655084405791</v>
       </c>
       <c r="Q41" t="n">
         <v>2568.859555751524</v>
@@ -7436,7 +7436,7 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S41" t="n">
-        <v>2548.829993026035</v>
+        <v>2548.829993026036</v>
       </c>
       <c r="T41" t="n">
         <v>2491.362196014849</v>
@@ -7448,7 +7448,7 @@
         <v>2233.134626949914</v>
       </c>
       <c r="W41" t="n">
-        <v>2037.417547696292</v>
+        <v>2037.417547696291</v>
       </c>
       <c r="X41" t="n">
         <v>1822.205258106561</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.2860100971782</v>
+        <v>930.2860100971772</v>
       </c>
       <c r="C42" t="n">
-        <v>768.5823373381329</v>
+        <v>768.5823373381319</v>
       </c>
       <c r="D42" t="n">
-        <v>629.743700328345</v>
+        <v>629.7437003283439</v>
       </c>
       <c r="E42" t="n">
-        <v>482.7156903852162</v>
+        <v>482.7156903852151</v>
       </c>
       <c r="F42" t="n">
-        <v>348.0218923350906</v>
+        <v>348.0218923350895</v>
       </c>
       <c r="G42" t="n">
-        <v>219.3023513726297</v>
+        <v>219.3023513726286</v>
       </c>
       <c r="H42" t="n">
         <v>119.4510191359428</v>
@@ -7512,28 +7512,28 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.631531608694</v>
+        <v>2509.631531608693</v>
       </c>
       <c r="S42" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.349461662279</v>
+        <v>2168.349461662278</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.855258669422</v>
+        <v>1949.855258669421</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.459636117756</v>
+        <v>1721.459636117755</v>
       </c>
       <c r="W42" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.22677922886</v>
+        <v>1282.226779228859</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.705452878439</v>
+        <v>1089.705452878438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.26969657134973</v>
+        <v>56.26969657134984</v>
       </c>
       <c r="C43" t="n">
-        <v>53.47157792180614</v>
+        <v>53.4715779218062</v>
       </c>
       <c r="D43" t="n">
-        <v>53.47157792180614</v>
+        <v>53.4715779218062</v>
       </c>
       <c r="E43" t="n">
-        <v>53.47157792180614</v>
+        <v>53.4715779218062</v>
       </c>
       <c r="F43" t="n">
-        <v>53.47157792180614</v>
+        <v>53.4715779218062</v>
       </c>
       <c r="G43" t="n">
         <v>51.37719111503048</v>
@@ -7564,55 +7564,55 @@
         <v>51.37719111503048</v>
       </c>
       <c r="I43" t="n">
-        <v>73.76334240566297</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="J43" t="n">
-        <v>73.76334240566297</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="K43" t="n">
-        <v>108.2227989985568</v>
+        <v>85.83664770792436</v>
       </c>
       <c r="L43" t="n">
-        <v>209.9243280658185</v>
+        <v>187.5381767751861</v>
       </c>
       <c r="M43" t="n">
-        <v>329.0717779141075</v>
+        <v>356.4653213845831</v>
       </c>
       <c r="N43" t="n">
-        <v>448.6206251819082</v>
+        <v>476.0141686523838</v>
       </c>
       <c r="O43" t="n">
-        <v>548.1247818538575</v>
+        <v>575.5183253243331</v>
       </c>
       <c r="P43" t="n">
-        <v>611.9836017914729</v>
+        <v>639.3771452619485</v>
       </c>
       <c r="Q43" t="n">
-        <v>639.3771452619478</v>
+        <v>639.3771452619485</v>
       </c>
       <c r="R43" t="n">
-        <v>639.3771452619478</v>
+        <v>639.3771452619485</v>
       </c>
       <c r="S43" t="n">
-        <v>592.6161286949457</v>
+        <v>592.6161286949463</v>
       </c>
       <c r="T43" t="n">
-        <v>526.2871185830476</v>
+        <v>526.287118583048</v>
       </c>
       <c r="U43" t="n">
-        <v>405.9151396483744</v>
+        <v>405.9151396483747</v>
       </c>
       <c r="V43" t="n">
-        <v>311.9976860955731</v>
+        <v>311.9976860955734</v>
       </c>
       <c r="W43" t="n">
-        <v>192.6591355017483</v>
+        <v>192.6591355017486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.2245222859002</v>
+        <v>128.2245222859004</v>
       </c>
       <c r="Y43" t="n">
-        <v>73.00721436695343</v>
+        <v>73.0072143669536</v>
       </c>
     </row>
     <row r="44">
@@ -7628,52 +7628,52 @@
         <v>1153.139657163515</v>
       </c>
       <c r="D44" t="n">
-        <v>947.1335432795149</v>
+        <v>947.1335432795154</v>
       </c>
       <c r="E44" t="n">
-        <v>719.1656742743978</v>
+        <v>719.1656742743983</v>
       </c>
       <c r="F44" t="n">
-        <v>471.8323344733445</v>
+        <v>471.8323344733449</v>
       </c>
       <c r="G44" t="n">
-        <v>222.5629431610319</v>
+        <v>222.5629431610323</v>
       </c>
       <c r="H44" t="n">
-        <v>56.73100266751435</v>
+        <v>56.7310026675143</v>
       </c>
       <c r="I44" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J44" t="n">
-        <v>124.7686097247668</v>
+        <v>288.2667853808563</v>
       </c>
       <c r="K44" t="n">
-        <v>366.9965393351849</v>
+        <v>567.3202901199247</v>
       </c>
       <c r="L44" t="n">
-        <v>829.991764143828</v>
+        <v>1081.293638615598</v>
       </c>
       <c r="M44" t="n">
-        <v>1226.112581624941</v>
+        <v>1477.414456096711</v>
       </c>
       <c r="N44" t="n">
-        <v>1607.372219670225</v>
+        <v>1858.674094141995</v>
       </c>
       <c r="O44" t="n">
-        <v>1915.141895304184</v>
+        <v>2166.443769775954</v>
       </c>
       <c r="P44" t="n">
-        <v>2309.156908749701</v>
+        <v>2396.960607565382</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.859555751524</v>
+        <v>2493.165078911115</v>
       </c>
       <c r="R44" t="n">
         <v>2568.859555751524</v>
       </c>
       <c r="S44" t="n">
-        <v>2548.829993026036</v>
+        <v>2548.829993026035</v>
       </c>
       <c r="T44" t="n">
         <v>2491.362196014849</v>
@@ -7685,7 +7685,7 @@
         <v>2233.134626949914</v>
       </c>
       <c r="W44" t="n">
-        <v>2037.417547696291</v>
+        <v>2037.417547696292</v>
       </c>
       <c r="X44" t="n">
         <v>1822.205258106561</v>
@@ -7725,31 +7725,31 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J45" t="n">
-        <v>112.4609240610673</v>
+        <v>112.4609240610682</v>
       </c>
       <c r="K45" t="n">
-        <v>343.3693719355355</v>
+        <v>343.3693719355364</v>
       </c>
       <c r="L45" t="n">
-        <v>711.0977523348499</v>
+        <v>711.0977523348508</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.355942532094</v>
+        <v>1198.355942532095</v>
       </c>
       <c r="N45" t="n">
-        <v>1711.905310149131</v>
+        <v>1711.905310149132</v>
       </c>
       <c r="O45" t="n">
-        <v>2106.194419939005</v>
+        <v>2106.194419939006</v>
       </c>
       <c r="P45" t="n">
-        <v>2409.967073500307</v>
+        <v>2409.967073500308</v>
       </c>
       <c r="Q45" t="n">
-        <v>2568.859555751523</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S45" t="n">
         <v>2356.99845438182</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.26969657134984</v>
+        <v>56.26969657134973</v>
       </c>
       <c r="C46" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="D46" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="E46" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="F46" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="G46" t="n">
         <v>51.37719111503048</v>
@@ -7825,31 +7825,31 @@
         <v>589.5974505008404</v>
       </c>
       <c r="Q46" t="n">
-        <v>639.3771452619485</v>
+        <v>622.094269128491</v>
       </c>
       <c r="R46" t="n">
-        <v>639.3771452619485</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="S46" t="n">
-        <v>592.6161286949463</v>
+        <v>592.6161286949457</v>
       </c>
       <c r="T46" t="n">
-        <v>526.287118583048</v>
+        <v>526.2871185830476</v>
       </c>
       <c r="U46" t="n">
-        <v>405.9151396483747</v>
+        <v>405.9151396483744</v>
       </c>
       <c r="V46" t="n">
-        <v>311.9976860955734</v>
+        <v>311.9976860955731</v>
       </c>
       <c r="W46" t="n">
-        <v>192.6591355017486</v>
+        <v>192.6591355017483</v>
       </c>
       <c r="X46" t="n">
-        <v>128.2245222859004</v>
+        <v>128.2245222859002</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.0072143669536</v>
+        <v>73.00721436695343</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +7985,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>501.6984813203822</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -7994,7 +7994,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>335.6692084026294</v>
       </c>
       <c r="Q2" t="n">
         <v>180.6233730229902</v>
@@ -8055,25 +8055,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>193.1640535731264</v>
       </c>
       <c r="M3" t="n">
-        <v>595.8190745448359</v>
+        <v>595.8190745448363</v>
       </c>
       <c r="N3" t="n">
-        <v>587.0503130509044</v>
+        <v>587.0503130509048</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>228.5633571336336</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8216,7 +8216,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>243.3338092873282</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8228,7 +8228,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>495.0402356415689</v>
+        <v>316.9850085863849</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
@@ -8298,22 +8298,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>595.8190745448359</v>
+        <v>595.8190745448363</v>
       </c>
       <c r="N6" t="n">
-        <v>587.0503130509044</v>
+        <v>469.9631803234703</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>201.9188060083456</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8532,13 +8532,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>315.5450020690959</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>196.5733747639883</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8778,13 +8778,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>582.7111780508358</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>373.5676906361317</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>123.4844373467477</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>582.711178050833</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>564.9826742792162</v>
       </c>
       <c r="N18" t="n">
-        <v>582.711178050833</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>582.7111780508335</v>
+        <v>582.7111780508362</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>123.4844373467481</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>582.7111780508335</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425307</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425307</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163514</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466198</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10908,7 +10908,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828750001</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425307</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.2049710268942</v>
       </c>
       <c r="D11" t="n">
         <v>276.1862750714221</v>
       </c>
       <c r="E11" t="n">
-        <v>297.9284126413276</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>317.1002287293048</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>203.7717423984949</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.59198554918481</v>
+        <v>92.06948942449525</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.4257067174172</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>266.0001307873484</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>88.81036494390949</v>
       </c>
       <c r="C13" t="n">
-        <v>75.01035978930992</v>
+        <v>24.24433578343713</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>58.63172418688836</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>57.57947404266781</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>58.04639837085412</v>
       </c>
       <c r="G13" t="n">
-        <v>74.31366526496967</v>
+        <v>74.31366526496973</v>
       </c>
       <c r="H13" t="n">
-        <v>64.80335745095491</v>
+        <v>64.80335745095496</v>
       </c>
       <c r="I13" t="n">
-        <v>49.62794829531986</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.78277168640647</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>137.905942337041</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>79.55081859249134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>297.9284126413276</v>
       </c>
       <c r="F14" t="n">
-        <v>292.1933658361903</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>236.413843414844</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>77.54049576322076</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>92.06948942449519</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>129.1333413673365</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.2604804921803</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>285.300389020095</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.6969868162938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.42675243202525</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>58.63172418688831</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>57.57947404266775</v>
+        <v>57.57947404266777</v>
       </c>
       <c r="F16" t="n">
-        <v>58.04639837085406</v>
+        <v>58.04639837085408</v>
       </c>
       <c r="G16" t="n">
-        <v>74.31366526496967</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>64.80335745095491</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.62794829531986</v>
+        <v>49.62794829531988</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.78277168640642</v>
+        <v>54.78277168640643</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>69.7670178632501</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>191.4084814715882</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1073272.416082887</v>
+        <v>1073272.416082888</v>
       </c>
     </row>
     <row r="6">
@@ -26329,7 +26329,7 @@
         <v>134334.2105864819</v>
       </c>
       <c r="H2" t="n">
-        <v>134334.2105864818</v>
+        <v>134334.2105864819</v>
       </c>
       <c r="I2" t="n">
         <v>134334.2105864819</v>
@@ -26344,16 +26344,16 @@
         <v>134334.2105864819</v>
       </c>
       <c r="M2" t="n">
-        <v>134334.2105864818</v>
+        <v>134334.2105864819</v>
       </c>
       <c r="N2" t="n">
         <v>134334.2105864818</v>
       </c>
       <c r="O2" t="n">
-        <v>134334.2105864819</v>
+        <v>134334.210586482</v>
       </c>
       <c r="P2" t="n">
-        <v>134334.2105864819</v>
+        <v>134334.2105864818</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160971.3638405246</v>
+        <v>160971.3638405247</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13968.41893580377</v>
+        <v>13968.41893580363</v>
       </c>
       <c r="E3" t="n">
-        <v>109498.687031682</v>
+        <v>109498.6870316822</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>59905.73913112829</v>
+        <v>59905.73913112818</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>208854.0161477514</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>69213.04195975677</v>
+      </c>
+      <c r="M3" t="n">
+        <v>22084.35219766541</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.273736754432321e-11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>40822.34374648842</v>
+      </c>
+      <c r="P3" t="n">
         <v>4.547473508864641e-11</v>
-      </c>
-      <c r="L3" t="n">
-        <v>69213.04195975694</v>
-      </c>
-      <c r="M3" t="n">
-        <v>22084.35219766532</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>40822.34374648835</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219216.2769669491</v>
+        <v>219216.276966949</v>
       </c>
       <c r="C4" t="n">
-        <v>219216.2769669491</v>
+        <v>219216.276966949</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
       </c>
       <c r="E4" t="n">
-        <v>140959.0860285798</v>
+        <v>140959.0860285799</v>
       </c>
       <c r="F4" t="n">
-        <v>140959.0860285798</v>
+        <v>140959.0860285799</v>
       </c>
       <c r="G4" t="n">
         <v>198390.5914932772</v>
       </c>
       <c r="H4" t="n">
-        <v>198390.5914932773</v>
+        <v>198390.5914932772</v>
       </c>
       <c r="I4" t="n">
-        <v>198390.5914932773</v>
+        <v>198390.5914932772</v>
       </c>
       <c r="J4" t="n">
+        <v>198353.3799776761</v>
+      </c>
+      <c r="K4" t="n">
         <v>198353.379977676</v>
       </c>
-      <c r="K4" t="n">
-        <v>198353.3799776761</v>
-      </c>
       <c r="L4" t="n">
-        <v>198112.5265492105</v>
+        <v>198112.5265492106</v>
       </c>
       <c r="M4" t="n">
-        <v>197569.3581676766</v>
+        <v>197569.3581676765</v>
       </c>
       <c r="N4" t="n">
         <v>197569.3581676765</v>
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62831.97845657832</v>
+        <v>62831.97845657834</v>
       </c>
       <c r="C5" t="n">
-        <v>62831.97845657832</v>
+        <v>62831.97845657834</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46326.49540297881</v>
+        <v>46326.49540297885</v>
       </c>
       <c r="F5" t="n">
-        <v>46326.49540297881</v>
+        <v>46326.49540297885</v>
       </c>
       <c r="G5" t="n">
-        <v>52621.76488174734</v>
+        <v>52621.76488174737</v>
       </c>
       <c r="H5" t="n">
-        <v>52621.76488174735</v>
+        <v>52621.76488174737</v>
       </c>
       <c r="I5" t="n">
-        <v>52621.76488174735</v>
+        <v>52621.76488174737</v>
       </c>
       <c r="J5" t="n">
-        <v>58943.11413656328</v>
+        <v>58943.11413656327</v>
       </c>
       <c r="K5" t="n">
         <v>58943.11413656327</v>
       </c>
       <c r="L5" t="n">
-        <v>57187.12750810516</v>
+        <v>57187.12750810518</v>
       </c>
       <c r="M5" t="n">
-        <v>53020.52544612266</v>
+        <v>53020.52544612264</v>
       </c>
       <c r="N5" t="n">
         <v>53020.52544612266</v>
       </c>
       <c r="O5" t="n">
+        <v>53020.52544612265</v>
+      </c>
+      <c r="P5" t="n">
         <v>53020.52544612266</v>
-      </c>
-      <c r="P5" t="n">
-        <v>53020.52544612265</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308685.4086775702</v>
+        <v>-308685.4086775703</v>
       </c>
       <c r="C6" t="n">
         <v>-147714.0448370456</v>
       </c>
       <c r="D6" t="n">
-        <v>-153383.3500810569</v>
+        <v>-153383.3500810568</v>
       </c>
       <c r="E6" t="n">
-        <v>-180117.7789013368</v>
+        <v>-180370.1749159739</v>
       </c>
       <c r="F6" t="n">
-        <v>-70619.09186965482</v>
+        <v>-70871.48788429181</v>
       </c>
       <c r="G6" t="n">
-        <v>-176583.884919671</v>
+        <v>-176583.8849196708</v>
       </c>
       <c r="H6" t="n">
-        <v>-116678.1457885428</v>
+        <v>-116678.1457885427</v>
       </c>
       <c r="I6" t="n">
-        <v>-116678.1457885428</v>
+        <v>-116678.1457885427</v>
       </c>
       <c r="J6" t="n">
         <v>-331816.2996755088</v>
       </c>
       <c r="K6" t="n">
-        <v>-122962.2835277575</v>
+        <v>-122962.2835277574</v>
       </c>
       <c r="L6" t="n">
-        <v>-190178.4854305908</v>
+        <v>-190178.4854305906</v>
       </c>
       <c r="M6" t="n">
-        <v>-138340.0252249827</v>
+        <v>-138340.0252249826</v>
       </c>
       <c r="N6" t="n">
         <v>-116255.6730273174</v>
       </c>
       <c r="O6" t="n">
-        <v>-157078.0167738057</v>
+        <v>-157078.0167738056</v>
       </c>
       <c r="P6" t="n">
-        <v>-116255.6730273173</v>
+        <v>-116255.6730273174</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="F2" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="G2" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="H2" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="I2" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="J2" t="n">
         <v>125.9101035970208</v>
@@ -26713,19 +26713,19 @@
         <v>125.9101035970208</v>
       </c>
       <c r="L2" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="M2" t="n">
         <v>165.1496723798883</v>
       </c>
       <c r="N2" t="n">
+        <v>165.1496723798884</v>
+      </c>
+      <c r="O2" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>165.1496723798884</v>
-      </c>
-      <c r="P2" t="n">
-        <v>165.1496723798883</v>
       </c>
     </row>
     <row r="3">
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480.335171983196</v>
+        <v>480.3351719831965</v>
       </c>
       <c r="C4" t="n">
-        <v>480.335171983196</v>
+        <v>480.3351719831965</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>632.0032640629247</v>
+        <v>632.0032640629254</v>
       </c>
       <c r="F4" t="n">
-        <v>632.0032640629247</v>
+        <v>632.0032640629254</v>
       </c>
       <c r="G4" t="n">
-        <v>632.0032640629247</v>
+        <v>632.0032640629254</v>
       </c>
       <c r="H4" t="n">
-        <v>632.0032640629248</v>
+        <v>632.0032640629255</v>
       </c>
       <c r="I4" t="n">
-        <v>632.0032640629248</v>
+        <v>632.0032640629255</v>
       </c>
       <c r="J4" t="n">
-        <v>793.8829810176101</v>
+        <v>793.8829810176098</v>
       </c>
       <c r="K4" t="n">
         <v>793.8829810176098</v>
       </c>
       <c r="L4" t="n">
-        <v>748.9149517358155</v>
+        <v>748.914951735816</v>
       </c>
       <c r="M4" t="n">
-        <v>642.214888937881</v>
+        <v>642.2148889378809</v>
       </c>
       <c r="N4" t="n">
         <v>642.214888937881</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>74.88217391391036</v>
+        <v>74.88217391391022</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51.02792968311041</v>
+        <v>51.02792968311059</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>86.51630244969596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>27.60544024708176</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="O2" t="n">
+        <v>51.02792968311053</v>
+      </c>
+      <c r="P2" t="n">
         <v>5.684341886080801e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>86.51630244969618</v>
-      </c>
-      <c r="M2" t="n">
-        <v>27.60544024708165</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>51.02792968311044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480.335171983196</v>
+        <v>480.3351719831965</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.96802928179432</v>
+        <v>44.96802928179386</v>
       </c>
       <c r="E4" t="n">
-        <v>106.7000627979344</v>
+        <v>106.7000627979351</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>642.2148889378816</v>
+        <v>642.2148889378808</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>74.88217391391036</v>
+        <v>74.88217391391022</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.02792968311041</v>
+        <v>51.02792968311059</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>480.335171983196</v>
+        <v>480.3351719831965</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>44.96802928179432</v>
+        <v>44.96802928179386</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7000627979344</v>
+        <v>106.7000627979351</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>60.66567379224171</v>
       </c>
       <c r="X2" t="n">
-        <v>372.0531951253669</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>46.10085081230598</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>88.81612124485829</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27543,7 +27543,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
@@ -27552,7 +27552,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>120.0153810246853</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,16 +27588,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>126.9168917009799</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>76.71105869187437</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27670,16 +27670,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>356.6518622893484</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>20.31601701846334</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>73.01123837686085</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27786,7 +27786,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27825,7 +27825,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>154.6338994726082</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27834,13 +27834,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>144.2908017368839</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>263.866917576259</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>230.6753270934114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>23.97879438033956</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>39.65166063266715</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>73.46009459787302</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28059,19 +28059,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.1050729359213</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="C11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="D11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="E11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="F11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="G11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="H11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="I11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="K11" t="n">
-        <v>27.66540891074544</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>27.66540891074897</v>
       </c>
       <c r="M11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="O11" t="n">
-        <v>92.90945005362659</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>92.90945005362659</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.90945005362659</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="S11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="T11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="U11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="V11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="W11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="X11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>39.62927381472961</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.62927381472699</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="C13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="D13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="E13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="F13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="G13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="H13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="I13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="J13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="K13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="L13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="M13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="N13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="O13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="P13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="R13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="S13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="T13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="U13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="V13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="W13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="X13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362653</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="C14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="D14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="E14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="F14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="G14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="H14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="I14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="K14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="M14" t="n">
-        <v>92.90945005362659</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>27.66540891074555</v>
+        <v>27.66540891074897</v>
       </c>
       <c r="O14" t="n">
-        <v>92.90945005362659</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="S14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="T14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="U14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="V14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="W14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="X14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
     </row>
     <row r="15">
@@ -28460,10 +28460,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>39.62927381472704</v>
       </c>
       <c r="V15" t="n">
-        <v>39.62927381472966</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="C16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="D16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="E16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="F16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="G16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="H16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="I16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="J16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="K16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="L16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="M16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="N16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="O16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="P16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="R16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="S16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="T16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="U16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="V16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="W16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="X16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.90945005362659</v>
+        <v>92.90945005362657</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="C17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="D17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="E17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="F17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="G17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="H17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="I17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="J17" t="n">
-        <v>67.93880637948052</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="K17" t="n">
-        <v>167.791623967537</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28600,37 +28600,37 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="P17" t="n">
-        <v>167.791623967537</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>88.69060486432403</v>
+        <v>156.6294112438077</v>
       </c>
       <c r="S17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="T17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="U17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="V17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="W17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="X17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
     </row>
     <row r="18">
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.62927381472699</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>39.62927381472966</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28719,19 +28719,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="C19" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>157.5597811274169</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="G19" t="n">
         <v>167.2231153185963</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>23.90663257417715</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S19" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="T19" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="U19" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="V19" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="W19" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="X19" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="Y19" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
     </row>
     <row r="20">
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="C20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="D20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="E20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="F20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="G20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="H20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="I20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>156.6294112438052</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,7 +28834,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>167.791623967537</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28843,31 +28843,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>156.629411243808</v>
       </c>
       <c r="R20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="S20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="T20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="U20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="V20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="W20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="X20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="Y20" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
     </row>
     <row r="21">
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.62927381472925</v>
+        <v>39.62927381472655</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="C22" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28983,7 +28983,7 @@
         <v>58.93095321465074</v>
       </c>
       <c r="K22" t="n">
-        <v>23.90663257417712</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.52931879979313</v>
+        <v>41.3365491464681</v>
       </c>
       <c r="R22" t="n">
-        <v>147.692221740033</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="S22" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="T22" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="U22" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="V22" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="W22" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="X22" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="C23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="D23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="E23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="F23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="G23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="H23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="I23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>156.6294112438086</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29071,40 +29071,40 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>167.791623967537</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>167.791623967537</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>67.93880637948141</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="R23" t="n">
-        <v>88.69060486432403</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="S23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="T23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="U23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="V23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="W23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="X23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="Y23" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
     </row>
     <row r="24">
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.62927381472655</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>39.62927381472909</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="C25" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29214,7 +29214,7 @@
         <v>157.7128075045815</v>
       </c>
       <c r="I25" t="n">
-        <v>142.5373983489465</v>
+        <v>166.4440309231251</v>
       </c>
       <c r="J25" t="n">
         <v>58.93095321465074</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.43595137397028</v>
+        <v>37.52931879979313</v>
       </c>
       <c r="R25" t="n">
         <v>147.692221740033</v>
       </c>
       <c r="S25" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="T25" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="U25" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="V25" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="W25" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="X25" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.791623967537</v>
+        <v>167.7916239675368</v>
       </c>
     </row>
     <row r="26">
@@ -29317,7 +29317,7 @@
         <v>125.9101035970208</v>
       </c>
       <c r="Q26" t="n">
-        <v>125.9101035970222</v>
+        <v>125.9101035970208</v>
       </c>
       <c r="R26" t="n">
         <v>125.9101035970208</v>
@@ -29466,16 +29466,16 @@
         <v>125.9101035970208</v>
       </c>
       <c r="N28" t="n">
-        <v>28.44720230933287</v>
+        <v>65.97652110912439</v>
       </c>
       <c r="O28" t="n">
-        <v>125.9101035970208</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>125.9101035970208</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.52931879979313</v>
+        <v>125.9101035970208</v>
       </c>
       <c r="R28" t="n">
         <v>125.9101035970208</v>
@@ -29551,7 +29551,7 @@
         <v>125.9101035970208</v>
       </c>
       <c r="P29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970207</v>
       </c>
       <c r="Q29" t="n">
         <v>125.9101035970208</v>
@@ -29697,19 +29697,19 @@
         <v>125.9101035970208</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>65.97652110912485</v>
+      </c>
+      <c r="N31" t="n">
         <v>125.9101035970208</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>125.9101035970208</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>65.97652110912432</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>125.9101035970208</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="C32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="D32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="E32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="F32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="G32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="I32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="K32" t="n">
-        <v>137.5442321328067</v>
+        <v>41.17970765683998</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="N32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="O32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="P32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.5442321328067</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8703125211614</v>
+        <v>88.69060486432403</v>
       </c>
       <c r="S32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="T32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="U32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="V32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="W32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="X32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
     </row>
     <row r="33">
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="C34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="D34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="E34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="F34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="G34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="H34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="I34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="J34" t="n">
-        <v>58.93095321465074</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="K34" t="n">
-        <v>34.03781395562656</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="M34" t="n">
-        <v>137.5442321328067</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>55.43944837048635</v>
       </c>
       <c r="O34" t="n">
-        <v>137.5442321328067</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.5442321328067</v>
+        <v>37.52931879979313</v>
       </c>
       <c r="R34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="S34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="T34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="U34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="V34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="W34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="X34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.5442321328067</v>
+        <v>137.5442321328066</v>
       </c>
     </row>
     <row r="35">
@@ -30013,19 +30013,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>37.1975506349998</v>
+      </c>
+      <c r="P35" t="n">
         <v>165.1496723798883</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>37.19755063500088</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>165.1496723798883</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30147,25 +30147,25 @@
         <v>165.1496723798883</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="G37" t="n">
         <v>165.1496723798883</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7128075045815</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="I37" t="n">
-        <v>142.5373983489465</v>
+        <v>142.9199830559793</v>
       </c>
       <c r="J37" t="n">
-        <v>109.2134731753656</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1496723798883</v>
+        <v>37.19755063500043</v>
       </c>
       <c r="K38" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Q38" t="n">
-        <v>37.19755063500025</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="R38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7128075045815</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I40" t="n">
         <v>142.5373983489465</v>
@@ -30405,7 +30405,7 @@
         <v>58.93095321465074</v>
       </c>
       <c r="K40" t="n">
-        <v>50.28251996071481</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.52931879979313</v>
+        <v>48.25677496175141</v>
       </c>
       <c r="R40" t="n">
-        <v>147.692221740033</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="41">
@@ -30457,43 +30457,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="C41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="D41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="E41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="F41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="G41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="H41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="I41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1496723798884</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>165.1496723798884</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>113.656618150565</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.6566181505646</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>88.69060486432403</v>
       </c>
       <c r="S41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="T41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="U41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="V41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="W41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="X41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>-9.023892744153272e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="C43" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,13 +30630,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="H43" t="n">
         <v>157.7128075045815</v>
       </c>
       <c r="I43" t="n">
-        <v>165.1496723798884</v>
+        <v>142.5373983489465</v>
       </c>
       <c r="J43" t="n">
         <v>58.93095321465074</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>50.28251996071525</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.19956472956578</v>
+        <v>37.52931879979313</v>
       </c>
       <c r="R43" t="n">
         <v>147.692221740033</v>
       </c>
       <c r="S43" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="T43" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="U43" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="V43" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="W43" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="X43" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
     </row>
     <row r="44">
@@ -30694,37 +30694,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>37.19755063500031</v>
       </c>
       <c r="L44" t="n">
-        <v>113.6566181505648</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30736,34 +30736,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>88.69060486432403</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="45">
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H46" t="n">
         <v>157.7128075045815</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.81183876050838</v>
+        <v>70.35438812065229</v>
       </c>
       <c r="R46" t="n">
-        <v>147.692221740033</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34705,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>314.5421668232231</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34714,7 +34714,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>147.7923993514729</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>80.58862000197857</v>
       </c>
       <c r="M3" t="n">
-        <v>480.335171983196</v>
+        <v>480.3351719831965</v>
       </c>
       <c r="N3" t="n">
-        <v>480.335171983196</v>
+        <v>480.3351719831965</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>119.7091511094903</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34936,7 +34936,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>64.51080531328148</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34948,7 +34948,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>308.0854388614484</v>
+        <v>130.0302118062644</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
@@ -35018,22 +35018,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>480.335171983196</v>
+        <v>480.3351719831965</v>
       </c>
       <c r="N6" t="n">
-        <v>480.335171983196</v>
+        <v>363.248039255762</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>93.06459998420226</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>200.061099507456</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>87.71916873984496</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>74.13274607044073</v>
+        <v>167.0421961240673</v>
       </c>
       <c r="K11" t="n">
-        <v>272.3400852849052</v>
+        <v>337.5841264277862</v>
       </c>
       <c r="L11" t="n">
-        <v>354.0153261005899</v>
+        <v>381.6807350113389</v>
       </c>
       <c r="M11" t="n">
         <v>493.0314879133365</v>
       </c>
       <c r="N11" t="n">
-        <v>385.1107455002866</v>
+        <v>478.0201955539131</v>
       </c>
       <c r="O11" t="n">
-        <v>403.7879102899487</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P11" t="n">
-        <v>325.7547407500189</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q11" t="n">
-        <v>190.0856837361856</v>
+        <v>97.176233682559</v>
       </c>
       <c r="R11" t="n">
-        <v>4.218845189302557</v>
+        <v>4.2188451893025</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N12" t="n">
-        <v>518.736734966704</v>
+        <v>478.3028263709202</v>
       </c>
       <c r="O12" t="n">
         <v>398.2718280705802</v>
       </c>
       <c r="P12" t="n">
-        <v>266.4071556075485</v>
+        <v>306.8410642033352</v>
       </c>
       <c r="Q12" t="n">
         <v>160.49745681941</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.97849683897585</v>
+        <v>33.97849683897579</v>
       </c>
       <c r="K13" t="n">
-        <v>127.7169819656406</v>
+        <v>127.7169819656405</v>
       </c>
       <c r="L13" t="n">
-        <v>195.6382672932849</v>
+        <v>195.6382672932848</v>
       </c>
       <c r="M13" t="n">
-        <v>213.2604094963427</v>
+        <v>213.2604094963426</v>
       </c>
       <c r="N13" t="n">
         <v>213.6658614352434</v>
       </c>
       <c r="O13" t="n">
-        <v>193.4186992172118</v>
+        <v>193.4186992172117</v>
       </c>
       <c r="P13" t="n">
         <v>157.4133085764704</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.38013125383345</v>
+        <v>55.3801312538334</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>74.13274607044073</v>
+        <v>167.0421961240673</v>
       </c>
       <c r="K14" t="n">
         <v>337.5841264277863</v>
       </c>
       <c r="L14" t="n">
-        <v>354.0153261005899</v>
+        <v>446.9247761542165</v>
       </c>
       <c r="M14" t="n">
-        <v>493.0314879133365</v>
+        <v>400.12203785971</v>
       </c>
       <c r="N14" t="n">
-        <v>412.7761544110321</v>
+        <v>412.7761544110355</v>
       </c>
       <c r="O14" t="n">
-        <v>403.7879102899487</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P14" t="n">
         <v>325.7547407500189</v>
@@ -35668,7 +35668,7 @@
         <v>97.176233682559</v>
       </c>
       <c r="R14" t="n">
-        <v>4.218845189302557</v>
+        <v>4.218845189302542</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>61.7007403495329</v>
+        <v>21.26683175374907</v>
       </c>
       <c r="K15" t="n">
         <v>233.2408564388568</v>
@@ -35735,7 +35735,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3028263709175</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O15" t="n">
         <v>398.2718280705802</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.97849683897585</v>
+        <v>33.97849683897584</v>
       </c>
       <c r="K16" t="n">
         <v>127.7169819656406</v>
       </c>
       <c r="L16" t="n">
-        <v>195.6382672932849</v>
+        <v>195.6382672932848</v>
       </c>
       <c r="M16" t="n">
         <v>213.2604094963427</v>
@@ -35823,7 +35823,7 @@
         <v>157.4133085764704</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.38013125383345</v>
+        <v>55.38013125383344</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>142.0715524499213</v>
+        <v>241.9243700379775</v>
       </c>
       <c r="K17" t="n">
-        <v>412.4663003416967</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L17" t="n">
         <v>354.0153261005899</v>
@@ -35896,16 +35896,16 @@
         <v>385.1107455002866</v>
       </c>
       <c r="O17" t="n">
-        <v>310.8784602363221</v>
+        <v>478.6700842038589</v>
       </c>
       <c r="P17" t="n">
-        <v>400.6369146639293</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q17" t="n">
         <v>97.176233682559</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>67.93880637948372</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>371.442808484156</v>
       </c>
       <c r="M18" t="n">
-        <v>492.1799900982264</v>
+        <v>451.7460815024427</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3028263709175</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O18" t="n">
         <v>398.2718280705802</v>
@@ -36024,10 +36024,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>7.070857031122543</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>16.83577554305614</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>120.7564113816168</v>
       </c>
       <c r="O19" t="n">
-        <v>124.4158817377623</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P19" t="n">
         <v>64.50385852284386</v>
@@ -36121,7 +36121,7 @@
         <v>74.13274607044073</v>
       </c>
       <c r="K20" t="n">
-        <v>401.304087617965</v>
+        <v>412.4663003416965</v>
       </c>
       <c r="L20" t="n">
         <v>354.0153261005899</v>
@@ -36130,7 +36130,7 @@
         <v>400.12203785971</v>
       </c>
       <c r="N20" t="n">
-        <v>552.9023694678235</v>
+        <v>385.1107455002866</v>
       </c>
       <c r="O20" t="n">
         <v>310.8784602363221</v>
@@ -36139,10 +36139,10 @@
         <v>232.8452906963923</v>
       </c>
       <c r="Q20" t="n">
-        <v>97.176233682559</v>
+        <v>253.805644926367</v>
       </c>
       <c r="R20" t="n">
-        <v>79.10101910321293</v>
+        <v>79.10101910321276</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N21" t="n">
-        <v>478.302826370918</v>
+        <v>478.3028263709207</v>
       </c>
       <c r="O21" t="n">
         <v>398.2718280705802</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>58.71416448619113</v>
+        <v>34.80753191201401</v>
       </c>
       <c r="L22" t="n">
         <v>102.7288172396583</v>
@@ -36297,10 +36297,10 @@
         <v>64.50385852284386</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.807230346674972</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>20.09940222750379</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>74.13274607044073</v>
+        <v>230.7621573142494</v>
       </c>
       <c r="K23" t="n">
         <v>244.6746763741597</v>
@@ -36367,19 +36367,19 @@
         <v>400.12203785971</v>
       </c>
       <c r="N23" t="n">
-        <v>552.9023694678235</v>
+        <v>385.1107455002866</v>
       </c>
       <c r="O23" t="n">
-        <v>478.6700842038591</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P23" t="n">
-        <v>300.7840970758737</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q23" t="n">
-        <v>97.176233682559</v>
+        <v>264.9678576500958</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>79.10101910321276</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>61.7007403495329</v>
+        <v>21.26683175374952</v>
       </c>
       <c r="K24" t="n">
         <v>233.2408564388568</v>
@@ -36446,7 +36446,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N24" t="n">
-        <v>478.302826370918</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O24" t="n">
         <v>398.2718280705802</v>
@@ -36510,7 +36510,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>23.90663257417868</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>64.50385852284386</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.90663257417715</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>200.0428496674615</v>
+        <v>200.0428496674616</v>
       </c>
       <c r="K26" t="n">
-        <v>370.5847799711805</v>
+        <v>370.5847799711806</v>
       </c>
       <c r="L26" t="n">
-        <v>479.9254296976107</v>
+        <v>479.9254296976108</v>
       </c>
       <c r="M26" t="n">
         <v>526.0321414567308</v>
       </c>
       <c r="N26" t="n">
-        <v>511.0208490973073</v>
+        <v>511.0208490973074</v>
       </c>
       <c r="O26" t="n">
         <v>436.7885638333429</v>
       </c>
       <c r="P26" t="n">
-        <v>358.7553942934131</v>
+        <v>358.7553942934132</v>
       </c>
       <c r="Q26" t="n">
-        <v>223.0863372795812</v>
+        <v>223.0863372795799</v>
       </c>
       <c r="R26" t="n">
-        <v>37.21949873269676</v>
+        <v>37.21949873269682</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>61.7007403495329</v>
+        <v>61.7007403495321</v>
       </c>
       <c r="K27" t="n">
         <v>233.2408564388568</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>66.97915038237007</v>
+        <v>66.97915038237012</v>
       </c>
       <c r="K28" t="n">
         <v>160.7176355090348</v>
@@ -36762,16 +36762,16 @@
         <v>246.2610630397369</v>
       </c>
       <c r="N28" t="n">
-        <v>149.2036136909497</v>
+        <v>186.7329324907412</v>
       </c>
       <c r="O28" t="n">
-        <v>226.419352760606</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P28" t="n">
-        <v>190.4139621198646</v>
+        <v>190.4139621198647</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>88.38078479722772</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>200.0428496674616</v>
       </c>
       <c r="K29" t="n">
-        <v>370.5847799711806</v>
+        <v>370.5847799711805</v>
       </c>
       <c r="L29" t="n">
         <v>479.9254296976108</v>
@@ -36847,13 +36847,13 @@
         <v>436.7885638333429</v>
       </c>
       <c r="P29" t="n">
-        <v>358.7553942934132</v>
+        <v>358.755394293413</v>
       </c>
       <c r="Q29" t="n">
         <v>223.0863372795799</v>
       </c>
       <c r="R29" t="n">
-        <v>37.21949873269682</v>
+        <v>37.21949873269681</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>61.7007403495329</v>
+        <v>61.7007403495321</v>
       </c>
       <c r="K30" t="n">
-        <v>233.240856438856</v>
+        <v>233.2408564388568</v>
       </c>
       <c r="L30" t="n">
         <v>371.442808484156</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>66.97915038237012</v>
+        <v>66.97915038237009</v>
       </c>
       <c r="K31" t="n">
         <v>160.7176355090348</v>
       </c>
       <c r="L31" t="n">
-        <v>228.6389208366791</v>
+        <v>102.7288172396583</v>
       </c>
       <c r="M31" t="n">
-        <v>246.2610630397369</v>
+        <v>186.3274805518409</v>
       </c>
       <c r="N31" t="n">
-        <v>120.7564113816168</v>
+        <v>246.6665149786377</v>
       </c>
       <c r="O31" t="n">
-        <v>166.4857702727095</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P31" t="n">
-        <v>64.50385852284386</v>
+        <v>190.4139621198647</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.38078479722772</v>
+        <v>88.3807847972277</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>211.6769782032474</v>
+        <v>211.6769782032473</v>
       </c>
       <c r="K32" t="n">
-        <v>382.2189085069664</v>
+        <v>285.8543840309997</v>
       </c>
       <c r="L32" t="n">
-        <v>354.0153261005899</v>
+        <v>491.5595582333965</v>
       </c>
       <c r="M32" t="n">
-        <v>400.12203785971</v>
+        <v>537.6662699925165</v>
       </c>
       <c r="N32" t="n">
-        <v>522.6549776330933</v>
+        <v>522.6549776330932</v>
       </c>
       <c r="O32" t="n">
-        <v>448.4226923691288</v>
+        <v>448.4226923691286</v>
       </c>
       <c r="P32" t="n">
-        <v>370.3895228291991</v>
+        <v>370.3895228291989</v>
       </c>
       <c r="Q32" t="n">
-        <v>234.7204658153657</v>
+        <v>97.176233682559</v>
       </c>
       <c r="R32" t="n">
-        <v>41.17970765683739</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.61327891815584</v>
       </c>
       <c r="K34" t="n">
-        <v>68.84534586764057</v>
+        <v>172.3517640448206</v>
       </c>
       <c r="L34" t="n">
-        <v>102.7288172396583</v>
+        <v>240.2730493724648</v>
       </c>
       <c r="M34" t="n">
-        <v>257.8951915755228</v>
+        <v>120.3509594427161</v>
       </c>
       <c r="N34" t="n">
-        <v>120.7564113816168</v>
+        <v>176.1958597521032</v>
       </c>
       <c r="O34" t="n">
-        <v>238.0534812963919</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P34" t="n">
         <v>64.50385852284386</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.0149133330136</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,19 +37309,19 @@
         <v>244.6746763741597</v>
       </c>
       <c r="L35" t="n">
-        <v>519.1649984804782</v>
+        <v>354.0153261005899</v>
       </c>
       <c r="M35" t="n">
         <v>400.12203785971</v>
       </c>
       <c r="N35" t="n">
-        <v>422.3082961352874</v>
+        <v>385.1107455002866</v>
       </c>
       <c r="O35" t="n">
-        <v>310.8784602363221</v>
+        <v>348.0760108713219</v>
       </c>
       <c r="P35" t="n">
-        <v>232.8452906963923</v>
+        <v>397.9949630762807</v>
       </c>
       <c r="Q35" t="n">
         <v>262.3259060624474</v>
@@ -37394,7 +37394,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N36" t="n">
-        <v>518.7367349667043</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O36" t="n">
         <v>398.2718280705802</v>
@@ -37443,25 +37443,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>13.60849813937344</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>14.66074828359399</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>14.19382395540768</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>7.436864875306837</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.3825847070328882</v>
       </c>
       <c r="J37" t="n">
-        <v>50.28251996071481</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>34.80753191201401</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>239.2824184503291</v>
+        <v>111.3302967054412</v>
       </c>
       <c r="K38" t="n">
-        <v>409.824348754048</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L38" t="n">
         <v>354.0153261005899</v>
@@ -37558,13 +37558,13 @@
         <v>310.8784602363221</v>
       </c>
       <c r="P38" t="n">
-        <v>232.8452906963923</v>
+        <v>397.9949630762807</v>
       </c>
       <c r="Q38" t="n">
-        <v>134.3737843175593</v>
+        <v>262.3259060624474</v>
       </c>
       <c r="R38" t="n">
-        <v>76.4590675155643</v>
+        <v>76.45906751556433</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>371.442808484156</v>
       </c>
       <c r="M39" t="n">
-        <v>492.1799900982267</v>
+        <v>492.1799900982264</v>
       </c>
       <c r="N39" t="n">
         <v>518.736734966704</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>14.66074828359402</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>7.436864875306865</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>85.09005187272882</v>
+        <v>34.80753191201401</v>
       </c>
       <c r="L40" t="n">
         <v>102.7288172396583</v>
@@ -37719,10 +37719,10 @@
         <v>64.50385852284386</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>10.72745616195828</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>17.45745063985536</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>239.2824184503291</v>
+        <v>74.13274607044073</v>
       </c>
       <c r="K41" t="n">
-        <v>409.8243487540481</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L41" t="n">
-        <v>354.0153261005899</v>
+        <v>467.6719442511549</v>
       </c>
       <c r="M41" t="n">
-        <v>400.12203785971</v>
+        <v>565.2717102395983</v>
       </c>
       <c r="N41" t="n">
-        <v>385.1107455002866</v>
+        <v>550.2604178801748</v>
       </c>
       <c r="O41" t="n">
         <v>310.8784602363221</v>
@@ -37798,7 +37798,7 @@
         <v>232.8452906963923</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.8328518331236</v>
+        <v>97.176233682559</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>22.61227403094191</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>102.7288172396583</v>
       </c>
       <c r="M43" t="n">
-        <v>120.3509594427161</v>
+        <v>170.6334794034314</v>
       </c>
       <c r="N43" t="n">
         <v>120.7564113816168</v>
@@ -37956,7 +37956,7 @@
         <v>64.50385852284386</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.67024592977265</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>74.13274607044073</v>
+        <v>239.2824184503291</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6746763741597</v>
+        <v>281.87222700916</v>
       </c>
       <c r="L44" t="n">
-        <v>467.6719442511547</v>
+        <v>519.1649984804783</v>
       </c>
       <c r="M44" t="n">
         <v>400.12203785971</v>
@@ -38032,13 +38032,13 @@
         <v>310.8784602363221</v>
       </c>
       <c r="P44" t="n">
-        <v>397.9949630762806</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q44" t="n">
-        <v>262.3259060624473</v>
+        <v>97.176233682559</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.45906751556433</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>61.70074034953213</v>
+        <v>61.70074034953304</v>
       </c>
       <c r="K45" t="n">
         <v>233.2408564388568</v>
@@ -38193,10 +38193,10 @@
         <v>64.50385852284386</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.28251996071524</v>
+        <v>32.82506932085915</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>17.45745063985536</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
